--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEA79AC-693C-4165-B77A-2300AC6B2066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D016E948-12CA-485E-BD7A-AA8CADB63D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10770,8 +10770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="D492" sqref="D492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13533,8 +13533,11 @@
       <c r="C194" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E194" s="8" t="s">
-        <v>8</v>
+      <c r="D194" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E194" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -17684,8 +17687,11 @@
       <c r="C489" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E489" s="8" t="s">
-        <v>8</v>
+      <c r="D489" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E489" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D016E948-12CA-485E-BD7A-AA8CADB63D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94C07F8-A953-41CD-8ACD-685A03F68ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3436">
   <si>
     <t>ID</t>
   </si>
@@ -10341,6 +10341,9 @@
   </si>
   <si>
     <t>Keep a track of the level and reverse curr list based on that</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1WugaISSWx8</t>
   </si>
 </sst>
 </file>
@@ -10771,7 +10774,7 @@
   <dimension ref="A1:E1700"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="D492" sqref="D492"/>
+      <selection activeCell="H496" sqref="H496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17802,8 +17805,11 @@
       <c r="C497" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E497" s="8" t="s">
-        <v>8</v>
+      <c r="D497" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E497" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -36434,8 +36440,9 @@
     <hyperlink ref="B1699" r:id="rId1702" xr:uid="{BE3FFEBE-4FD0-4D58-8E59-155F1AB41174}"/>
     <hyperlink ref="D1605" r:id="rId1703" xr:uid="{0D40AF47-4380-4A3C-B92C-6961B6E391DF}"/>
     <hyperlink ref="D583" r:id="rId1704" xr:uid="{61FA88FA-2D4F-4048-BCC5-501F7B008612}"/>
+    <hyperlink ref="D497" r:id="rId1705" xr:uid="{9150FFFD-9A4C-4ADB-B5C1-47FF5C6FB818}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1705"/>
+  <pageSetup orientation="portrait" r:id="rId1706"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94C07F8-A953-41CD-8ACD-685A03F68ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B99A23-EA96-47C5-8656-126ECC6663C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3445">
   <si>
     <t>ID</t>
   </si>
@@ -10214,9 +10214,6 @@
   </si>
   <si>
     <t>Longer Contiguous Segments of Ones than Zeros</t>
-  </si>
-  <si>
-    <t>1870</t>
   </si>
   <si>
     <t>Minimum Speed to Arrive on Time</t>
@@ -10316,9 +10313,6 @@
     <t>Array With Elements Not Equal to Average of Neighbors</t>
   </si>
   <si>
-    <t>1877</t>
-  </si>
-  <si>
     <t>Explanation in Python File</t>
   </si>
   <si>
@@ -10344,6 +10338,39 @@
   </si>
   <si>
     <t>https://youtu.be/1WugaISSWx8</t>
+  </si>
+  <si>
+    <t>Number of Ways to Arrive at Destination</t>
+  </si>
+  <si>
+    <t>Djikstra with some tweakin</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
 </sst>
 </file>
@@ -10773,8 +10800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="H496" sqref="H496"/>
+    <sheetView tabSelected="1" topLeftCell="A1680" workbookViewId="0">
+      <selection activeCell="B1702" sqref="B1702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10869,7 +10896,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="E6" s="9" t="b">
         <v>1</v>
@@ -11710,7 +11737,7 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="E65" s="9" t="b">
         <v>1</v>
@@ -12217,7 +12244,7 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="E101" s="9" t="b">
         <v>1</v>
@@ -12234,7 +12261,7 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="E102" s="9" t="b">
         <v>1</v>
@@ -12265,7 +12292,7 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="E104" s="9" t="b">
         <v>1</v>
@@ -12565,7 +12592,7 @@
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="E125" s="9" t="b">
         <v>1</v>
@@ -13568,7 +13595,7 @@
         <v>11</v>
       </c>
       <c r="D196" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="E196" s="9" t="b">
         <v>1</v>
@@ -13613,7 +13640,7 @@
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="E199" s="9" t="b">
         <v>1</v>
@@ -14946,7 +14973,7 @@
         <v>11</v>
       </c>
       <c r="D294" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="E294" s="9" t="b">
         <v>1</v>
@@ -15327,7 +15354,7 @@
         <v>11</v>
       </c>
       <c r="D321" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="E321" s="9" t="b">
         <v>1</v>
@@ -16618,7 +16645,7 @@
         <v>11</v>
       </c>
       <c r="D413" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="E413" s="9" t="b">
         <v>1</v>
@@ -16859,7 +16886,7 @@
         <v>11</v>
       </c>
       <c r="D430" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="E430" s="9" t="b">
         <v>1</v>
@@ -17646,7 +17673,7 @@
         <v>11</v>
       </c>
       <c r="D486" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="E486" s="9" t="b">
         <v>1</v>
@@ -17806,7 +17833,7 @@
         <v>11</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="E497" s="9" t="b">
         <v>1</v>
@@ -18663,7 +18690,7 @@
         <v>11</v>
       </c>
       <c r="D558" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="E558" s="9" t="b">
         <v>1</v>
@@ -19016,7 +19043,7 @@
         <v>11</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="E583" s="9" t="b">
         <v>1</v>
@@ -19173,7 +19200,7 @@
         <v>11</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="E594" s="9" t="b">
         <v>1</v>
@@ -19543,7 +19570,7 @@
         <v>11</v>
       </c>
       <c r="D620" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="E620" s="9" t="b">
         <v>1</v>
@@ -20176,7 +20203,7 @@
         <v>11</v>
       </c>
       <c r="D665" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="E665" s="9" t="b">
         <v>1</v>
@@ -21467,7 +21494,7 @@
         <v>11</v>
       </c>
       <c r="D757" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E757" s="9" t="b">
         <v>1</v>
@@ -24800,7 +24827,7 @@
         <v>11</v>
       </c>
       <c r="D994" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="E994" s="9" t="b">
         <v>1</v>
@@ -24957,7 +24984,7 @@
         <v>11</v>
       </c>
       <c r="D1005" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E1005" s="9" t="b">
         <v>1</v>
@@ -25002,7 +25029,7 @@
         <v>11</v>
       </c>
       <c r="D1008" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E1008" s="9" t="b">
         <v>1</v>
@@ -27175,7 +27202,7 @@
         <v>7</v>
       </c>
       <c r="D1163" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="E1163" s="9" t="b">
         <v>1</v>
@@ -27234,7 +27261,7 @@
         <v>7</v>
       </c>
       <c r="D1167" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="E1167" s="9" t="b">
         <v>1</v>
@@ -27447,7 +27474,7 @@
         <v>7</v>
       </c>
       <c r="D1182" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E1182" s="9" t="b">
         <v>1</v>
@@ -27590,7 +27617,7 @@
         <v>7</v>
       </c>
       <c r="D1192" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="E1192" s="9" t="b">
         <v>1</v>
@@ -28237,7 +28264,7 @@
         <v>11</v>
       </c>
       <c r="D1238" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="E1238" s="9" t="b">
         <v>1</v>
@@ -29150,7 +29177,7 @@
         <v>7</v>
       </c>
       <c r="D1303" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="E1303" s="9" t="b">
         <v>1</v>
@@ -30475,7 +30502,7 @@
         <v>11</v>
       </c>
       <c r="D1397" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="E1397" s="9" t="b">
         <v>1</v>
@@ -30786,7 +30813,7 @@
         <v>11</v>
       </c>
       <c r="D1419" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="E1419" s="9" t="b">
         <v>1</v>
@@ -33393,7 +33420,7 @@
         <v>11</v>
       </c>
       <c r="D1605" s="1" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="E1605" s="9" t="b">
         <v>1</v>
@@ -34604,8 +34631,8 @@
       </c>
     </row>
     <row r="1692" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1692" s="11">
-        <v>1869</v>
+      <c r="A1692" s="10" t="s">
+        <v>3436</v>
       </c>
       <c r="B1692" s="1" t="s">
         <v>3396</v>
@@ -34618,53 +34645,53 @@
       </c>
     </row>
     <row r="1693" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1693" s="11" t="s">
+      <c r="A1693" s="10" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B1693" s="1" t="s">
         <v>3397</v>
       </c>
-      <c r="B1693" s="1" t="s">
+      <c r="C1693" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1693" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1694" s="10" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B1694" s="1" t="s">
         <v>3398</v>
       </c>
-      <c r="C1693" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1693" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1694" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1694" s="1" t="s">
+      <c r="C1694" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1694" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1695" s="10" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1695" s="1" t="s">
         <v>3399</v>
       </c>
-      <c r="C1694" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1694" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1695" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1695" s="1" t="s">
+      <c r="C1695" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1695" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1696" s="10" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B1696" s="1" t="s">
         <v>3400</v>
-      </c>
-      <c r="C1695" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1695" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1696" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1696" s="1" t="s">
-        <v>3401</v>
       </c>
       <c r="C1696" s="6" t="s">
         <v>14</v>
@@ -34674,59 +34701,71 @@
       </c>
     </row>
     <row r="1697" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1697" s="11" t="s">
-        <v>184</v>
+      <c r="A1697" s="10" t="s">
+        <v>3441</v>
       </c>
       <c r="B1697" s="1" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C1697" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1697" t="s">
         <v>3411</v>
-      </c>
-      <c r="C1697" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1697" t="s">
-        <v>3412</v>
       </c>
       <c r="E1697" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="1698" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1698" s="11" t="s">
-        <v>182</v>
+      <c r="A1698" s="10" t="s">
+        <v>3442</v>
       </c>
       <c r="B1698" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C1698" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1698" t="s">
         <v>3425</v>
-      </c>
-      <c r="C1698" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1698" t="s">
-        <v>3427</v>
       </c>
       <c r="E1698" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="1699" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1699" s="11" t="s">
-        <v>180</v>
+      <c r="A1699" s="10" t="s">
+        <v>3443</v>
       </c>
       <c r="B1699" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C1699" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1699" t="s">
         <v>3423</v>
-      </c>
-      <c r="C1699" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1699" t="s">
-        <v>3424</v>
       </c>
       <c r="E1699" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="1700" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1700" s="11" t="s">
-        <v>3426</v>
+      <c r="A1700" s="10" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B1700" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C1700" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>3435</v>
+      </c>
+      <c r="E1700" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -36441,8 +36480,9 @@
     <hyperlink ref="D1605" r:id="rId1703" xr:uid="{0D40AF47-4380-4A3C-B92C-6961B6E391DF}"/>
     <hyperlink ref="D583" r:id="rId1704" xr:uid="{61FA88FA-2D4F-4048-BCC5-501F7B008612}"/>
     <hyperlink ref="D497" r:id="rId1705" xr:uid="{9150FFFD-9A4C-4ADB-B5C1-47FF5C6FB818}"/>
+    <hyperlink ref="B1700" r:id="rId1706" xr:uid="{91F20E79-BADE-4AF0-B4AA-A67651693AA5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1706"/>
+  <pageSetup orientation="portrait" r:id="rId1707"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B99A23-EA96-47C5-8656-126ECC6663C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F927AA-E898-4495-8ADD-921C5D05DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3446">
   <si>
     <t>ID</t>
   </si>
@@ -10371,6 +10371,9 @@
   </si>
   <si>
     <t>2014</t>
+  </si>
+  <si>
+    <t>DSU</t>
   </si>
 </sst>
 </file>
@@ -10800,8 +10803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1680" workbookViewId="0">
-      <selection activeCell="B1702" sqref="B1702"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="I533" sqref="I533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18353,8 +18356,11 @@
       <c r="C534" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E534" s="8" t="s">
-        <v>8</v>
+      <c r="D534" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E534" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIME BOMB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F927AA-E898-4495-8ADD-921C5D05DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98AF16-1164-4D0C-91AD-631E943F0EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3447">
   <si>
     <t>ID</t>
   </si>
@@ -10374,6 +10374,9 @@
   </si>
   <si>
     <t>DSU</t>
+  </si>
+  <si>
+    <t>Solved Using Dijkstra</t>
   </si>
 </sst>
 </file>
@@ -10803,8 +10806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="I533" sqref="I533"/>
+    <sheetView tabSelected="1" topLeftCell="A1167" workbookViewId="0">
+      <selection activeCell="D1171" sqref="D1171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27423,8 +27426,11 @@
       <c r="C1178" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1178" s="8" t="s">
-        <v>8</v>
+      <c r="D1178" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E1178" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TIME BOMB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB98AF16-1164-4D0C-91AD-631E943F0EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563149F0-AB4C-4E6C-BE87-CAEF6E888AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3448">
   <si>
     <t>ID</t>
   </si>
@@ -10377,6 +10377,9 @@
   </si>
   <si>
     <t>Solved Using Dijkstra</t>
+  </si>
+  <si>
+    <t>Bucket Sort, Refer any youtube video</t>
   </si>
 </sst>
 </file>
@@ -10806,8 +10809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1167" workbookViewId="0">
-      <selection activeCell="D1171" sqref="D1171"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15502,8 +15505,11 @@
       <c r="C331" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E331" s="8" t="s">
-        <v>8</v>
+      <c r="D331" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E331" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563149F0-AB4C-4E6C-BE87-CAEF6E888AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F1AF4D-E3B6-4553-BFB0-F5E8EEADDBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10809,8 +10809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="D332" sqref="D332"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11731,8 +11731,11 @@
       <c r="C64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>8</v>
+      <c r="D64" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E64" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F1AF4D-E3B6-4553-BFB0-F5E8EEADDBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9C15BE-0B1B-49A2-AFD9-784359D57782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10809,8 +10809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A1236" workbookViewId="0">
+      <selection activeCell="D1247" sqref="D1247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28413,8 +28413,11 @@
       <c r="C1247" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1247" s="8" t="s">
-        <v>8</v>
+      <c r="D1247" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E1247" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9C15BE-0B1B-49A2-AFD9-784359D57782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F68CB4-DE3D-4837-BD21-B375D6A5698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10809,8 +10809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1236" workbookViewId="0">
-      <selection activeCell="D1247" sqref="D1247"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13015,8 +13015,11 @@
       <c r="C154" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E154" s="8" t="s">
-        <v>8</v>
+      <c r="D154" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E154" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F68CB4-DE3D-4837-BD21-B375D6A5698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3051FAD-A16A-424A-B49B-66A0A9CE2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3449">
   <si>
     <t>ID</t>
   </si>
@@ -10380,6 +10380,9 @@
   </si>
   <si>
     <t>Bucket Sort, Refer any youtube video</t>
+  </si>
+  <si>
+    <t>Inversion Count</t>
   </si>
 </sst>
 </file>
@@ -10809,8 +10812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A704" workbookViewId="0">
+      <selection activeCell="D716" sqref="D716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20926,8 +20929,11 @@
       <c r="C715" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E715" s="8" t="s">
-        <v>8</v>
+      <c r="D715" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E715" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3051FAD-A16A-424A-B49B-66A0A9CE2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415751BA-51E8-49AB-BE12-53532B2FC2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3450">
   <si>
     <t>ID</t>
   </si>
@@ -10383,6 +10383,9 @@
   </si>
   <si>
     <t>Inversion Count</t>
+  </si>
+  <si>
+    <t>DFS</t>
   </si>
 </sst>
 </file>
@@ -10812,8 +10815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A704" workbookViewId="0">
-      <selection activeCell="D716" sqref="D716"/>
+    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
+      <selection activeCell="D748" sqref="D748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21352,8 +21355,11 @@
       <c r="C745" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E745" s="8" t="s">
-        <v>8</v>
+      <c r="D745" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E745" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415751BA-51E8-49AB-BE12-53532B2FC2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818086B8-CEC1-4F5E-9E9F-B48EF34B73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3451">
   <si>
     <t>ID</t>
   </si>
@@ -10386,6 +10386,9 @@
   </si>
   <si>
     <t>DFS</t>
+  </si>
+  <si>
+    <t>N^2 and Nlogn both shown</t>
   </si>
 </sst>
 </file>
@@ -10815,8 +10818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
-      <selection activeCell="D748" sqref="D748"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D284" sqref="D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14853,8 +14856,11 @@
       <c r="C284" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E284" s="8" t="s">
-        <v>8</v>
+      <c r="D284" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E284" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818086B8-CEC1-4F5E-9E9F-B48EF34B73C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC496DA-4EA7-48F9-A0E6-1C0483F81985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3452">
   <si>
     <t>ID</t>
   </si>
@@ -10389,6 +10389,9 @@
   </si>
   <si>
     <t>N^2 and Nlogn both shown</t>
+  </si>
+  <si>
+    <t>https://youtu.be/oPrpoVdRLtg</t>
   </si>
 </sst>
 </file>
@@ -10818,8 +10821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D284" sqref="D284"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11084,8 +11087,8 @@
       <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>8</v>
+      <c r="E18" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -13764,8 +13767,11 @@
       <c r="C206" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E206" s="8" t="s">
-        <v>8</v>
+      <c r="D206" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E206" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -36526,8 +36532,9 @@
     <hyperlink ref="D583" r:id="rId1704" xr:uid="{61FA88FA-2D4F-4048-BCC5-501F7B008612}"/>
     <hyperlink ref="D497" r:id="rId1705" xr:uid="{9150FFFD-9A4C-4ADB-B5C1-47FF5C6FB818}"/>
     <hyperlink ref="B1700" r:id="rId1706" xr:uid="{91F20E79-BADE-4AF0-B4AA-A67651693AA5}"/>
+    <hyperlink ref="D206" r:id="rId1707" xr:uid="{EC68EA4A-1B48-4B31-9A2F-54416F0AF1B4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1707"/>
+  <pageSetup orientation="portrait" r:id="rId1708"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC496DA-4EA7-48F9-A0E6-1C0483F81985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A4E780-1B3E-45AB-A5DC-59E09E55B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3453">
   <si>
     <t>ID</t>
   </si>
@@ -10392,6 +10392,9 @@
   </si>
   <si>
     <t>https://youtu.be/oPrpoVdRLtg</t>
+  </si>
+  <si>
+    <t>Used DnC DP…similar to MCM concept</t>
   </si>
 </sst>
 </file>
@@ -10821,8 +10824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="I207" sqref="I207"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12831,8 +12834,11 @@
       <c r="C140" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E140" s="8" t="s">
-        <v>8</v>
+      <c r="D140" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E140" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A4E780-1B3E-45AB-A5DC-59E09E55B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B1501-F914-41E5-88DD-2FF04A4936F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3454">
   <si>
     <t>ID</t>
   </si>
@@ -10395,6 +10395,9 @@
   </si>
   <si>
     <t>Used DnC DP…similar to MCM concept</t>
+  </si>
+  <si>
+    <t>DP -&gt; Explanation in File for O(n2) optimization</t>
   </si>
 </sst>
 </file>
@@ -10824,8 +10827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12736,8 +12739,11 @@
       <c r="C133" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E133" s="8" t="s">
-        <v>8</v>
+      <c r="D133" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E133" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -24185,8 +24191,11 @@
       <c r="C945" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E945" s="8" t="s">
-        <v>8</v>
+      <c r="D945" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E945" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B1501-F914-41E5-88DD-2FF04A4936F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F4F1B-5E33-4335-B22D-1BE98D359906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3455">
   <si>
     <t>ID</t>
   </si>
@@ -10398,6 +10398,9 @@
   </si>
   <si>
     <t>DP -&gt; Explanation in File for O(n2) optimization</t>
+  </si>
+  <si>
+    <t>Game Theory DP</t>
   </si>
 </sst>
 </file>
@@ -10827,8 +10830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A1110" workbookViewId="0">
+      <selection activeCell="D1121" sqref="D1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26673,8 +26676,11 @@
       <c r="C1121" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1121" s="8" t="s">
-        <v>8</v>
+      <c r="D1121" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E1121" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F4F1B-5E33-4335-B22D-1BE98D359906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE0FD9-0E46-45E6-9586-B510B030FC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10830,8 +10830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1110" workbookViewId="0">
-      <selection activeCell="D1121" sqref="D1121"/>
+    <sheetView tabSelected="1" topLeftCell="A1534" workbookViewId="0">
+      <selection activeCell="E1545" sqref="E1545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -32651,8 +32651,11 @@
       <c r="C1545" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1545" s="8" t="s">
-        <v>8</v>
+      <c r="D1545" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E1545" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1546" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE0FD9-0E46-45E6-9586-B510B030FC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C0999A-CB91-4595-9FC0-E955BEFEA8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3455">
   <si>
     <t>ID</t>
   </si>
@@ -10830,8 +10830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1534" workbookViewId="0">
-      <selection activeCell="E1545" sqref="E1545"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13667,8 +13667,8 @@
       <c r="C198" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E198" s="8" t="s">
-        <v>8</v>
+      <c r="E198" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C0999A-CB91-4595-9FC0-E955BEFEA8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B2BB6-9D31-4EA7-928A-A09822DE31AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3456">
   <si>
     <t>ID</t>
   </si>
@@ -10401,6 +10401,9 @@
   </si>
   <si>
     <t>Game Theory DP</t>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
 </sst>
 </file>
@@ -10830,8 +10833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="B639" sqref="B639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15006,8 +15009,11 @@
       <c r="C293" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E293" s="8" t="s">
-        <v>8</v>
+      <c r="D293" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E293" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B2BB6-9D31-4EA7-928A-A09822DE31AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468732E-EFA1-46BA-B790-33F7FA0DB8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3457">
   <si>
     <t>ID</t>
   </si>
@@ -10404,6 +10404,9 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>LIS type DP</t>
   </si>
 </sst>
 </file>
@@ -10833,8 +10836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="B639" sqref="B639"/>
+    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="D582" sqref="D582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19088,8 +19091,11 @@
       <c r="C582" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E582" s="8" t="s">
-        <v>8</v>
+      <c r="D582" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E582" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468732E-EFA1-46BA-B790-33F7FA0DB8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BA918-0C6C-49EE-BFBA-CA3E3454150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="3457">
   <si>
     <t>ID</t>
   </si>
@@ -10836,8 +10836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="D582" sqref="D582"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="D509" sqref="D509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18063,8 +18063,8 @@
       <c r="C509" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E509" s="8" t="s">
-        <v>8</v>
+      <c r="E509" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175BA918-0C6C-49EE-BFBA-CA3E3454150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677243A3-383A-47CB-A581-7C088D0447D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10836,8 +10836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="D509" sqref="D509"/>
+    <sheetView tabSelected="1" topLeftCell="A860" workbookViewId="0">
+      <selection activeCell="D874" sqref="D874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23195,8 +23195,11 @@
       <c r="C873" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E873" s="8" t="s">
-        <v>8</v>
+      <c r="D873" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E873" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677243A3-383A-47CB-A581-7C088D0447D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F36116-5AE6-4CCD-9B65-145D66B1B626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="3457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3457">
   <si>
     <t>ID</t>
   </si>
@@ -10836,8 +10836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A860" workbookViewId="0">
-      <selection activeCell="D874" sqref="D874"/>
+    <sheetView tabSelected="1" topLeftCell="A1286" workbookViewId="0">
+      <selection activeCell="E1299" sqref="E1299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29207,8 +29207,8 @@
       <c r="C1299" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1299" s="8" t="s">
-        <v>8</v>
+      <c r="E1299" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F36116-5AE6-4CCD-9B65-145D66B1B626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CCB723-B76A-475E-8ACD-29E02E8A9991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10836,8 +10836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1286" workbookViewId="0">
-      <selection activeCell="E1299" sqref="E1299"/>
+    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="D666" sqref="D666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20285,8 +20285,11 @@
       <c r="C666" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E666" s="8" t="s">
-        <v>8</v>
+      <c r="D666" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E666" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CCB723-B76A-475E-8ACD-29E02E8A9991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6769AE-0369-4486-A927-3FF0B6E7AAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3458">
   <si>
     <t>ID</t>
   </si>
@@ -10407,6 +10407,9 @@
   </si>
   <si>
     <t>LIS type DP</t>
+  </si>
+  <si>
+    <t>DP -&gt; Explanation in File</t>
   </si>
 </sst>
 </file>
@@ -10836,8 +10839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
-      <selection activeCell="D666" sqref="D666"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12156,8 +12159,11 @@
       <c r="C92" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E92" s="8" t="s">
-        <v>8</v>
+      <c r="D92" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E92" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6769AE-0369-4486-A927-3FF0B6E7AAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AA9499-482E-4AFC-964C-EE4B02137266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3459">
   <si>
     <t>ID</t>
   </si>
@@ -10410,6 +10410,9 @@
   </si>
   <si>
     <t>DP -&gt; Explanation in File</t>
+  </si>
+  <si>
+    <t>FInding Tree Center(s)</t>
   </si>
 </sst>
 </file>
@@ -10839,8 +10842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12131,6 +12134,9 @@
       <c r="C90" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D90" t="s">
+        <v>3458</v>
+      </c>
       <c r="E90" s="8" t="s">
         <v>8</v>
       </c>
@@ -12970,8 +12976,8 @@
       <c r="C148" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E148" s="8" t="s">
-        <v>8</v>
+      <c r="E148" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AA9499-482E-4AFC-964C-EE4B02137266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA011B62-CA44-4ADC-A892-7F29FFFBEB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3460">
   <si>
     <t>ID</t>
   </si>
@@ -10413,6 +10413,9 @@
   </si>
   <si>
     <t>FInding Tree Center(s)</t>
+  </si>
+  <si>
+    <t>BFS, Explanation in code file</t>
   </si>
 </sst>
 </file>
@@ -10842,8 +10845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12687,8 +12690,11 @@
       <c r="C128" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E128" s="8" t="s">
-        <v>8</v>
+      <c r="D128" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E128" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA011B62-CA44-4ADC-A892-7F29FFFBEB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C598B5D-2B0B-40B0-A5A0-847DADAC8FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3461">
   <si>
     <t>ID</t>
   </si>
@@ -10416,6 +10416,9 @@
   </si>
   <si>
     <t>BFS, Explanation in code file</t>
+  </si>
+  <si>
+    <t>Digit DP + Math. Check OneNote too and explanation in file</t>
   </si>
 </sst>
 </file>
@@ -10845,8 +10848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A843" workbookViewId="0">
+      <selection activeCell="D857" sqref="D857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22978,8 +22981,11 @@
       <c r="C856" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E856" s="8" t="s">
-        <v>8</v>
+      <c r="D856" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E856" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C598B5D-2B0B-40B0-A5A0-847DADAC8FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D870B64F-7DD5-4422-BF15-371D31876529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3463">
   <si>
     <t>ID</t>
   </si>
@@ -10419,6 +10419,12 @@
   </si>
   <si>
     <t>Digit DP + Math. Check OneNote too and explanation in file</t>
+  </si>
+  <si>
+    <t>Similar to Word Ladder, with some logic changes</t>
+  </si>
+  <si>
+    <t>Explanation Here</t>
   </si>
 </sst>
 </file>
@@ -10848,8 +10854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A843" workbookViewId="0">
-      <selection activeCell="D857" sqref="D857"/>
+    <sheetView tabSelected="1" topLeftCell="A1301" workbookViewId="0">
+      <selection activeCell="E1314" sqref="E1314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12679,8 +12685,11 @@
       <c r="C127" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="8" t="s">
-        <v>8</v>
+      <c r="D127" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E127" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -16235,8 +16244,11 @@
       <c r="C378" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E378" s="8" t="s">
-        <v>8</v>
+      <c r="D378" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E378" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -29447,8 +29459,11 @@
       <c r="C1314" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1314" s="8" t="s">
-        <v>8</v>
+      <c r="D1314" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E1314" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -36599,8 +36614,9 @@
     <hyperlink ref="D497" r:id="rId1705" xr:uid="{9150FFFD-9A4C-4ADB-B5C1-47FF5C6FB818}"/>
     <hyperlink ref="B1700" r:id="rId1706" xr:uid="{91F20E79-BADE-4AF0-B4AA-A67651693AA5}"/>
     <hyperlink ref="D206" r:id="rId1707" xr:uid="{EC68EA4A-1B48-4B31-9A2F-54416F0AF1B4}"/>
+    <hyperlink ref="D378" r:id="rId1708" xr:uid="{F9608593-C7AC-43AE-96E3-16072155D06D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1708"/>
+  <pageSetup orientation="portrait" r:id="rId1709"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D870B64F-7DD5-4422-BF15-371D31876529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E31B7-F451-4BC1-8913-49A1FF8DAFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3465">
   <si>
     <t>ID</t>
   </si>
@@ -10425,6 +10425,12 @@
   </si>
   <si>
     <t>Explanation Here</t>
+  </si>
+  <si>
+    <t>Bit Trie for finding Max Xor. Explanation given.</t>
+  </si>
+  <si>
+    <t>Bit Trie for MAX Xor</t>
   </si>
 </sst>
 </file>
@@ -10854,8 +10860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1301" workbookViewId="0">
-      <selection activeCell="E1314" sqref="E1314"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="E405" sqref="E405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16625,8 +16631,11 @@
       <c r="C405" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E405" s="8" t="s">
-        <v>8</v>
+      <c r="D405" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E405" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -32935,8 +32944,11 @@
       <c r="C1561" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1561" s="8" t="s">
-        <v>8</v>
+      <c r="D1561" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E1561" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1562" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78E31B7-F451-4BC1-8913-49A1FF8DAFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C7366-7F4D-454F-B486-C3A5B7F8DBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3465">
   <si>
     <t>ID</t>
   </si>
@@ -10860,8 +10860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="E405" sqref="E405"/>
+    <sheetView tabSelected="1" topLeftCell="A1494" workbookViewId="0">
+      <selection activeCell="E1507" sqref="E1507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -32185,8 +32185,8 @@
       <c r="C1507" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1507" s="8" t="s">
-        <v>8</v>
+      <c r="E1507" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1508" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C7366-7F4D-454F-B486-C3A5B7F8DBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F66679-0DD2-42D2-A557-26AEB9DA6D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10860,8 +10860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1494" workbookViewId="0">
-      <selection activeCell="E1507" sqref="E1507"/>
+    <sheetView tabSelected="1" topLeftCell="A1601" workbookViewId="0">
+      <selection activeCell="D1614" sqref="D1614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33692,8 +33692,11 @@
       <c r="C1614" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1614" s="8" t="s">
-        <v>8</v>
+      <c r="D1614" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E1614" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1615" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F66679-0DD2-42D2-A557-26AEB9DA6D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C830F50-8C15-4794-AE3A-8EB1161D63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3466">
   <si>
     <t>ID</t>
   </si>
@@ -10431,6 +10431,9 @@
   </si>
   <si>
     <t>Bit Trie for MAX Xor</t>
+  </si>
+  <si>
+    <t>Sliding Window + HashMap</t>
   </si>
 </sst>
 </file>
@@ -10860,8 +10863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1601" workbookViewId="0">
-      <selection activeCell="D1614" sqref="D1614"/>
+    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
+      <selection activeCell="D884" sqref="D884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23400,8 +23403,11 @@
       <c r="C884" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E884" s="8" t="s">
-        <v>8</v>
+      <c r="D884" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E884" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C830F50-8C15-4794-AE3A-8EB1161D63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B3D79-F2D4-4050-918A-FC49639C4C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3468">
   <si>
     <t>ID</t>
   </si>
@@ -10434,6 +10434,12 @@
   </si>
   <si>
     <t>Sliding Window + HashMap</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bmaeYtlO2OE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0do2734xhnU</t>
   </si>
 </sst>
 </file>
@@ -10863,8 +10869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
-      <selection activeCell="D884" sqref="D884"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="D530" sqref="D530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12085,8 +12091,11 @@
       <c r="C85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>8</v>
+      <c r="D85" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E85" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -18388,8 +18397,11 @@
       <c r="C529" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E529" s="8" t="s">
-        <v>8</v>
+      <c r="D529" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E529" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -20935,8 +20947,11 @@
       <c r="C709" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E709" s="8" t="s">
-        <v>8</v>
+      <c r="D709" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E709" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -36636,8 +36651,10 @@
     <hyperlink ref="B1700" r:id="rId1706" xr:uid="{91F20E79-BADE-4AF0-B4AA-A67651693AA5}"/>
     <hyperlink ref="D206" r:id="rId1707" xr:uid="{EC68EA4A-1B48-4B31-9A2F-54416F0AF1B4}"/>
     <hyperlink ref="D378" r:id="rId1708" xr:uid="{F9608593-C7AC-43AE-96E3-16072155D06D}"/>
+    <hyperlink ref="D709" r:id="rId1709" xr:uid="{CB86AB24-6B0E-45B1-BC77-000B12DAA422}"/>
+    <hyperlink ref="D85" r:id="rId1710" xr:uid="{5EC41503-5BF9-4FF5-8D36-A157E1B8AAC6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1709"/>
+  <pageSetup orientation="portrait" r:id="rId1711"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B3D79-F2D4-4050-918A-FC49639C4C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2B30B0-5007-45FA-9BEE-D8633ABA4853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3469">
   <si>
     <t>ID</t>
   </si>
@@ -10440,6 +10440,9 @@
   </si>
   <si>
     <t>https://youtu.be/0do2734xhnU</t>
+  </si>
+  <si>
+    <t>DSU + Sieve of Eratothenes</t>
   </si>
 </sst>
 </file>
@@ -10869,8 +10872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="D530" sqref="D530"/>
+    <sheetView tabSelected="1" topLeftCell="A1098" workbookViewId="0">
+      <selection activeCell="E1108" sqref="E1108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26578,8 +26581,11 @@
       <c r="C1108" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1108" s="8" t="s">
-        <v>8</v>
+      <c r="D1108" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E1108" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2B30B0-5007-45FA-9BEE-D8633ABA4853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9C9FF-46EF-42EF-AA34-4C16B1DFC414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3470">
   <si>
     <t>ID</t>
   </si>
@@ -10443,6 +10443,9 @@
   </si>
   <si>
     <t>DSU + Sieve of Eratothenes</t>
+  </si>
+  <si>
+    <t>Check Discussion</t>
   </si>
 </sst>
 </file>
@@ -10872,8 +10875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1098" workbookViewId="0">
-      <selection activeCell="E1108" sqref="E1108"/>
+    <sheetView tabSelected="1" topLeftCell="A1143" workbookViewId="0">
+      <selection activeCell="D1156" sqref="D1156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27259,8 +27262,11 @@
       <c r="C1156" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1156" s="8" t="s">
-        <v>8</v>
+      <c r="D1156" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E1156" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9C9FF-46EF-42EF-AA34-4C16B1DFC414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBBFB67-C70A-4D6D-A206-63334E06E8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3471">
   <si>
     <t>ID</t>
   </si>
@@ -10446,6 +10446,9 @@
   </si>
   <si>
     <t>Check Discussion</t>
+  </si>
+  <si>
+    <t>Divide and Conquer or LR DP</t>
   </si>
 </sst>
 </file>
@@ -10875,8 +10878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1143" workbookViewId="0">
-      <selection activeCell="D1156" sqref="D1156"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15113,6 +15116,9 @@
       </c>
       <c r="C296" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="D296" t="s">
+        <v>3470</v>
       </c>
       <c r="E296" s="9" t="b">
         <v>1</v>

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBBFB67-C70A-4D6D-A206-63334E06E8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B56ED-2950-4BD3-AA49-73669772B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3472">
   <si>
     <t>ID</t>
   </si>
@@ -10449,6 +10449,9 @@
   </si>
   <si>
     <t>Divide and Conquer or LR DP</t>
+  </si>
+  <si>
+    <t>Dijkstra and then send largest distance</t>
   </si>
 </sst>
 </file>
@@ -10878,8 +10881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+    <sheetView tabSelected="1" topLeftCell="A656" workbookViewId="0">
+      <selection activeCell="D669" sqref="D669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20399,8 +20402,11 @@
       <c r="C669" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E669" s="8" t="s">
-        <v>8</v>
+      <c r="D669" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E669" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B56ED-2950-4BD3-AA49-73669772B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A429952C-95BE-4B7C-B5C4-2E62056E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10881,8 +10881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A656" workbookViewId="0">
-      <selection activeCell="D669" sqref="D669"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16294,8 +16294,11 @@
       <c r="C379" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E379" s="8" t="s">
-        <v>8</v>
+      <c r="D379" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E379" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A429952C-95BE-4B7C-B5C4-2E62056E707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771E9E3-89A9-45B8-91F7-67BC2B04E041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3473">
   <si>
     <t>ID</t>
   </si>
@@ -10452,6 +10452,9 @@
   </si>
   <si>
     <t>Dijkstra and then send largest distance</t>
+  </si>
+  <si>
+    <t>DP + DFS: Explanation in One Note</t>
   </si>
 </sst>
 </file>
@@ -10881,8 +10884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="D379" sqref="D379"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="D317" sqref="D317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15361,8 +15364,11 @@
       <c r="C313" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E313" s="8" t="s">
-        <v>8</v>
+      <c r="D313" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E313" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771E9E3-89A9-45B8-91F7-67BC2B04E041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D875FB6-20AD-4ED0-8435-D9F3FA26C658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10884,8 +10884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="D317" sqref="D317"/>
+    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
+      <selection activeCell="E750" sqref="E750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21557,8 +21557,11 @@
       <c r="C750" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E750" s="8" t="s">
-        <v>8</v>
+      <c r="D750" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E750" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D875FB6-20AD-4ED0-8435-D9F3FA26C658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D64E3C-791D-4DFA-A18A-B6D5E825B6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3474">
   <si>
     <t>ID</t>
   </si>
@@ -10455,6 +10455,9 @@
   </si>
   <si>
     <t>DP + DFS: Explanation in One Note</t>
+  </si>
+  <si>
+    <t>Partial Sums</t>
   </si>
 </sst>
 </file>
@@ -10884,8 +10887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
-      <selection activeCell="E750" sqref="E750"/>
+    <sheetView tabSelected="1" topLeftCell="A1057" workbookViewId="0">
+      <selection activeCell="E1079" sqref="E1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26202,8 +26205,11 @@
       <c r="C1079" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1079" s="8" t="s">
-        <v>8</v>
+      <c r="D1079" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E1079" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D64E3C-791D-4DFA-A18A-B6D5E825B6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BCD1DF-D183-42DD-BADC-E91F1E3B7075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3476">
   <si>
     <t>ID</t>
   </si>
@@ -10458,6 +10458,12 @@
   </si>
   <si>
     <t>Partial Sums</t>
+  </si>
+  <si>
+    <t>Maximum Fruits Harvested After at Most K Steps</t>
+  </si>
+  <si>
+    <t>Prefix Sum Tricky</t>
   </si>
 </sst>
 </file>
@@ -10554,7 +10560,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10581,6 +10587,9 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -10885,10 +10894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1700"/>
+  <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1057" workbookViewId="0">
-      <selection activeCell="E1079" sqref="E1079"/>
+    <sheetView tabSelected="1" topLeftCell="A1204" workbookViewId="0">
+      <selection activeCell="D1218" sqref="D1218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28164,8 +28173,11 @@
       <c r="C1217" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1217" s="8" t="s">
-        <v>8</v>
+      <c r="D1217" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E1217" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -34975,6 +34987,23 @@
         <v>3435</v>
       </c>
       <c r="E1700" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1701" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B1701" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C1701" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E1701" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -36695,8 +36724,9 @@
     <hyperlink ref="D378" r:id="rId1708" xr:uid="{F9608593-C7AC-43AE-96E3-16072155D06D}"/>
     <hyperlink ref="D709" r:id="rId1709" xr:uid="{CB86AB24-6B0E-45B1-BC77-000B12DAA422}"/>
     <hyperlink ref="D85" r:id="rId1710" xr:uid="{5EC41503-5BF9-4FF5-8D36-A157E1B8AAC6}"/>
+    <hyperlink ref="B1701" r:id="rId1711" xr:uid="{A58925E6-DAF0-4F95-A761-4E0C09A5E431}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1711"/>
+  <pageSetup orientation="portrait" r:id="rId1712"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BCD1DF-D183-42DD-BADC-E91F1E3B7075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E74DC-EEA6-4B03-A93E-7928EDA94456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10897,7 +10897,7 @@
   <dimension ref="A1:E1701"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1204" workbookViewId="0">
-      <selection activeCell="D1218" sqref="D1218"/>
+      <selection activeCell="D1210" sqref="D1210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28061,8 +28061,11 @@
       <c r="C1209" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1209" s="8" t="s">
-        <v>8</v>
+      <c r="D1209" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E1209" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E74DC-EEA6-4B03-A93E-7928EDA94456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F663A33-F512-479F-A56C-352CA612C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3477">
   <si>
     <t>ID</t>
   </si>
@@ -10464,6 +10464,9 @@
   </si>
   <si>
     <t>Prefix Sum Tricky</t>
+  </si>
+  <si>
+    <t>Stack</t>
   </si>
 </sst>
 </file>
@@ -10896,8 +10899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1204" workbookViewId="0">
-      <selection activeCell="D1210" sqref="D1210"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13081,8 +13084,11 @@
       <c r="C151" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="8" t="s">
-        <v>8</v>
+      <c r="D151" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E151" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F663A33-F512-479F-A56C-352CA612C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F01B86-268B-43A8-BA32-418F2C150DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3478">
   <si>
     <t>ID</t>
   </si>
@@ -10467,6 +10467,9 @@
   </si>
   <si>
     <t>Stack</t>
+  </si>
+  <si>
+    <t>Tricky</t>
   </si>
 </sst>
 </file>
@@ -10899,8 +10902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+    <sheetView tabSelected="1" topLeftCell="A1017" workbookViewId="0">
+      <selection activeCell="D1030" sqref="D1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25534,8 +25537,11 @@
       <c r="C1030" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1030" s="8" t="s">
-        <v>8</v>
+      <c r="D1030" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E1030" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F01B86-268B-43A8-BA32-418F2C150DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BDE96B-DD14-4170-B128-66B36646B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3479">
   <si>
     <t>ID</t>
   </si>
@@ -10470,6 +10470,9 @@
   </si>
   <si>
     <t>Tricky</t>
+  </si>
+  <si>
+    <t>Full Explanation in Code File. Interesting approach</t>
   </si>
 </sst>
 </file>
@@ -10902,8 +10905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1017" workbookViewId="0">
-      <selection activeCell="D1030" sqref="D1030"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="D467" sqref="D467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17565,8 +17568,11 @@
       <c r="C467" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E467" s="8" t="s">
-        <v>8</v>
+      <c r="D467" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E467" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BDE96B-DD14-4170-B128-66B36646B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92B56B-5AB5-469C-AEB0-27367A17E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3480">
   <si>
     <t>ID</t>
   </si>
@@ -10473,6 +10473,9 @@
   </si>
   <si>
     <t>Full Explanation in Code File. Interesting approach</t>
+  </si>
+  <si>
+    <t>Monoqueue</t>
   </si>
 </sst>
 </file>
@@ -10905,8 +10908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="D467" sqref="D467"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14130,8 +14133,11 @@
       <c r="C224" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E224" s="8" t="s">
-        <v>8</v>
+      <c r="D224" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E224" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92B56B-5AB5-469C-AEB0-27367A17E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D0A8CF-9FA0-4448-8A58-B450C12ED6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6648" uniqueCount="3480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3481">
   <si>
     <t>ID</t>
   </si>
@@ -10476,6 +10476,9 @@
   </si>
   <si>
     <t>Monoqueue</t>
+  </si>
+  <si>
+    <t>Monoque, See vid link, tricky</t>
   </si>
 </sst>
 </file>
@@ -10908,8 +10911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView tabSelected="1" topLeftCell="A1483" workbookViewId="0">
+      <selection activeCell="E1484" sqref="E1484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30573,8 +30576,11 @@
       <c r="C1385" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1385" s="8" t="s">
-        <v>8</v>
+      <c r="D1385" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E1385" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1386" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -31965,8 +31971,8 @@
       <c r="C1484" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1484" s="8" t="s">
-        <v>8</v>
+      <c r="E1484" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1485" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D0A8CF-9FA0-4448-8A58-B450C12ED6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3432A7CE-5191-4E20-AEBD-DBFF635F8D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3482">
   <si>
     <t>ID</t>
   </si>
@@ -10479,6 +10479,9 @@
   </si>
   <si>
     <t>Monoque, See vid link, tricky</t>
+  </si>
+  <si>
+    <t>Important</t>
   </si>
 </sst>
 </file>
@@ -10911,8 +10914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1483" workbookViewId="0">
-      <selection activeCell="E1484" sqref="E1484"/>
+    <sheetView tabSelected="1" topLeftCell="A1551" workbookViewId="0">
+      <selection activeCell="D1564" sqref="D1564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11533,8 +11536,11 @@
       <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>8</v>
+      <c r="D43" t="s">
+        <v>3402</v>
+      </c>
+      <c r="E43" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -33097,8 +33103,11 @@
       <c r="C1564" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1564" s="8" t="s">
-        <v>8</v>
+      <c r="D1564" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E1564" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1565" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3432A7CE-5191-4E20-AEBD-DBFF635F8D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6609D6-3142-49FC-BCB3-032330A710D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3484">
   <si>
     <t>ID</t>
   </si>
@@ -10482,6 +10482,12 @@
   </si>
   <si>
     <t>Important</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Explanation in OneNote and code File</t>
   </si>
 </sst>
 </file>
@@ -10914,8 +10920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1551" workbookViewId="0">
-      <selection activeCell="D1564" sqref="D1564"/>
+    <sheetView tabSelected="1" topLeftCell="A1210" workbookViewId="0">
+      <selection activeCell="D1223" sqref="D1223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28296,8 +28302,11 @@
       <c r="C1223" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1223" s="8" t="s">
-        <v>8</v>
+      <c r="D1223" t="s">
+        <v>3483</v>
+      </c>
+      <c r="E1223" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -31319,8 +31328,11 @@
       <c r="C1437" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1437" s="8" t="s">
-        <v>8</v>
+      <c r="D1437" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E1437" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1438" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6609D6-3142-49FC-BCB3-032330A710D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39010DE-E5C2-459D-8AC9-52F4C8FCFC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10920,8 +10920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1210" workbookViewId="0">
-      <selection activeCell="D1223" sqref="D1223"/>
+    <sheetView tabSelected="1" topLeftCell="A1579" workbookViewId="0">
+      <selection activeCell="D1593" sqref="D1593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33510,8 +33510,11 @@
       <c r="C1592" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1592" s="8" t="s">
-        <v>8</v>
+      <c r="D1592" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E1592" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1593" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39010DE-E5C2-459D-8AC9-52F4C8FCFC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEC00C1-16A3-40F1-B491-3B1AE7C300D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10920,8 +10920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1579" workbookViewId="0">
-      <selection activeCell="D1593" sqref="D1593"/>
+    <sheetView tabSelected="1" topLeftCell="A1367" workbookViewId="0">
+      <selection activeCell="D1381" sqref="D1381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30521,8 +30521,11 @@
       <c r="C1380" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1380" s="8" t="s">
-        <v>8</v>
+      <c r="D1380" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E1380" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1381" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEC00C1-16A3-40F1-B491-3B1AE7C300D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5132C7-199B-4567-8922-02882BF350CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10920,8 +10920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1367" workbookViewId="0">
-      <selection activeCell="D1381" sqref="D1381"/>
+    <sheetView tabSelected="1" topLeftCell="A1426" workbookViewId="0">
+      <selection activeCell="D1440" sqref="D1440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31362,8 +31362,11 @@
       <c r="C1439" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1439" s="8" t="s">
-        <v>8</v>
+      <c r="D1439" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E1439" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1440" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5132C7-199B-4567-8922-02882BF350CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E445B0CD-2172-4824-83D2-D4A9BB665678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3485">
   <si>
     <t>ID</t>
   </si>
@@ -10488,6 +10488,9 @@
   </si>
   <si>
     <t>Explanation in OneNote and code File</t>
+  </si>
+  <si>
+    <t>Sort based on largest alice[i]+bob[i]</t>
   </si>
 </sst>
 </file>
@@ -10920,8 +10923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1426" workbookViewId="0">
-      <selection activeCell="D1440" sqref="D1440"/>
+    <sheetView tabSelected="1" topLeftCell="A1514" workbookViewId="0">
+      <selection activeCell="D1527" sqref="D1527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -32597,8 +32600,11 @@
       <c r="C1527" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1527" s="8" t="s">
-        <v>8</v>
+      <c r="D1527" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E1527" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1528" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E445B0CD-2172-4824-83D2-D4A9BB665678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D660D5-6D8A-469C-BE07-BE77A56FFCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10923,8 +10923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1514" workbookViewId="0">
-      <selection activeCell="D1527" sqref="D1527"/>
+    <sheetView tabSelected="1" topLeftCell="A1014" workbookViewId="0">
+      <selection activeCell="D1027" sqref="D1027"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25525,8 +25525,11 @@
       <c r="C1027" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1027" s="8" t="s">
-        <v>8</v>
+      <c r="D1027" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E1027" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D660D5-6D8A-469C-BE07-BE77A56FFCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382DE74B-4C60-4C00-BDA2-28A8A17727EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3486">
   <si>
     <t>ID</t>
   </si>
@@ -10491,6 +10491,9 @@
   </si>
   <si>
     <t>Sort based on largest alice[i]+bob[i]</t>
+  </si>
+  <si>
+    <t>Tricky DP optimization</t>
   </si>
 </sst>
 </file>
@@ -10923,8 +10926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1014" workbookViewId="0">
-      <selection activeCell="D1027" sqref="D1027"/>
+    <sheetView tabSelected="1" topLeftCell="A1682" workbookViewId="0">
+      <selection activeCell="D1695" sqref="D1695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34976,8 +34979,11 @@
       <c r="C1695" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1695" s="8" t="s">
-        <v>8</v>
+      <c r="D1695" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E1695" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1696" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382DE74B-4C60-4C00-BDA2-28A8A17727EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34B4AA-3F0E-4001-80DA-96AEFF429FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="3489">
   <si>
     <t>ID</t>
   </si>
@@ -10494,6 +10494,15 @@
   </si>
   <si>
     <t>Tricky DP optimization</t>
+  </si>
+  <si>
+    <t>Sum of Subarray Ranges</t>
+  </si>
+  <si>
+    <t>Monotonic Stack's Very Good Use</t>
+  </si>
+  <si>
+    <t>Good use of Monotonic Stack/ Queue</t>
   </si>
 </sst>
 </file>
@@ -10924,10 +10933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1701"/>
+  <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1682" workbookViewId="0">
-      <selection activeCell="D1695" sqref="D1695"/>
+    <sheetView tabSelected="1" topLeftCell="A848" workbookViewId="0">
+      <selection activeCell="D862" sqref="D862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23177,8 +23186,11 @@
       <c r="C861" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E861" s="8" t="s">
-        <v>8</v>
+      <c r="D861" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E861" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -35082,6 +35094,23 @@
         <v>3475</v>
       </c>
       <c r="E1701" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1702" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B1702" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C1702" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>3487</v>
+      </c>
+      <c r="E1702" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -36803,8 +36832,9 @@
     <hyperlink ref="D709" r:id="rId1709" xr:uid="{CB86AB24-6B0E-45B1-BC77-000B12DAA422}"/>
     <hyperlink ref="D85" r:id="rId1710" xr:uid="{5EC41503-5BF9-4FF5-8D36-A157E1B8AAC6}"/>
     <hyperlink ref="B1701" r:id="rId1711" xr:uid="{A58925E6-DAF0-4F95-A761-4E0C09A5E431}"/>
+    <hyperlink ref="B1702" r:id="rId1712" xr:uid="{F81604E5-E7CC-466A-83EC-DB2C3214D809}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1712"/>
+  <pageSetup orientation="portrait" r:id="rId1713"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34B4AA-3F0E-4001-80DA-96AEFF429FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA82A6-EB6C-4E38-8F2A-673F48545D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="3489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="3490">
   <si>
     <t>ID</t>
   </si>
@@ -10503,6 +10503,9 @@
   </si>
   <si>
     <t>Good use of Monotonic Stack/ Queue</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
   </si>
 </sst>
 </file>
@@ -10935,8 +10938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A848" workbookViewId="0">
-      <selection activeCell="D862" sqref="D862"/>
+    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
+      <selection activeCell="D797" sqref="D797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22284,8 +22287,11 @@
       <c r="C797" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E797" s="8" t="s">
-        <v>8</v>
+      <c r="D797" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E797" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA82A6-EB6C-4E38-8F2A-673F48545D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0822AF8B-0E83-47F9-AFFB-83400DF5B510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="3490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="3491">
   <si>
     <t>ID</t>
   </si>
@@ -10506,6 +10506,9 @@
   </si>
   <si>
     <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>Hard and V. IMP DP</t>
   </si>
 </sst>
 </file>
@@ -10938,8 +10941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
-      <selection activeCell="D797" sqref="D797"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13468,8 +13471,11 @@
       <c r="C175" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E175" s="8" t="s">
-        <v>8</v>
+      <c r="D175" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E175" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0822AF8B-0E83-47F9-AFFB-83400DF5B510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597BD402-2FB5-4F90-BE46-C068458C9ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="3491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3493">
   <si>
     <t>ID</t>
   </si>
@@ -10509,6 +10509,12 @@
   </si>
   <si>
     <t>Hard and V. IMP DP</t>
+  </si>
+  <si>
+    <t>https://youtu.be/j6IHk2cH58I</t>
+  </si>
+  <si>
+    <t>Find factors for num+1 and num+2</t>
   </si>
 </sst>
 </file>
@@ -10941,8 +10947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
+      <selection activeCell="D1148" sqref="D1148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11123,8 +11129,11 @@
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>8</v>
+      <c r="D12" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E12" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -13017,8 +13026,8 @@
       <c r="C143" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>8</v>
+      <c r="E143" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -17064,8 +17073,11 @@
       <c r="C428" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E428" s="8" t="s">
-        <v>8</v>
+      <c r="D428" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E428" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -21539,11 +21551,14 @@
       <c r="B744" s="1" t="s">
         <v>1879</v>
       </c>
-      <c r="C744" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E744" s="8" t="s">
-        <v>8</v>
+      <c r="C744" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D744" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E744" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -27261,8 +27276,11 @@
       <c r="C1148" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1148" s="8" t="s">
-        <v>8</v>
+      <c r="D1148" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E1148" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -36845,8 +36863,9 @@
     <hyperlink ref="D85" r:id="rId1710" xr:uid="{5EC41503-5BF9-4FF5-8D36-A157E1B8AAC6}"/>
     <hyperlink ref="B1701" r:id="rId1711" xr:uid="{A58925E6-DAF0-4F95-A761-4E0C09A5E431}"/>
     <hyperlink ref="B1702" r:id="rId1712" xr:uid="{F81604E5-E7CC-466A-83EC-DB2C3214D809}"/>
+    <hyperlink ref="D428" r:id="rId1713" xr:uid="{18096D3C-0C4B-45BD-BBFD-FF3BB6761391}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1713"/>
+  <pageSetup orientation="portrait" r:id="rId1714"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597BD402-2FB5-4F90-BE46-C068458C9ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24020AC-B6AF-4494-AF14-0595486C17F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3494">
   <si>
     <t>ID</t>
   </si>
@@ -10515,6 +10515,9 @@
   </si>
   <si>
     <t>Find factors for num+1 and num+2</t>
+  </si>
+  <si>
+    <t>DP+ MonoQueue, New Concept</t>
   </si>
 </sst>
 </file>
@@ -10948,7 +10951,7 @@
   <dimension ref="A1:E1702"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
-      <selection activeCell="D1148" sqref="D1148"/>
+      <selection activeCell="D1157" sqref="D1157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27408,8 +27411,11 @@
       <c r="C1157" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1157" s="8" t="s">
-        <v>8</v>
+      <c r="D1157" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1157" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24020AC-B6AF-4494-AF14-0595486C17F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930D4704-C938-4B7F-B245-E65326EF0E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3496">
   <si>
     <t>ID</t>
   </si>
@@ -10518,6 +10518,12 @@
   </si>
   <si>
     <t>DP+ MonoQueue, New Concept</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Seive of Eratotheses</t>
   </si>
 </sst>
 </file>
@@ -10950,8 +10956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
-      <selection activeCell="D1157" sqref="D1157"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13679,11 +13685,14 @@
       <c r="B189" s="1" t="s">
         <v>2989</v>
       </c>
-      <c r="C189" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>8</v>
+      <c r="C189" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E189" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -27888,8 +27897,11 @@
       <c r="C1190" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1190" s="8" t="s">
-        <v>8</v>
+      <c r="D1190" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E1190" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930D4704-C938-4B7F-B245-E65326EF0E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59BF34-5D7B-4501-81D5-CCB1FF0559C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3497">
   <si>
     <t>ID</t>
   </si>
@@ -10524,6 +10524,9 @@
   </si>
   <si>
     <t>Seive of Eratotheses</t>
+  </si>
+  <si>
+    <t>Tough DP, similar to LIS</t>
   </si>
 </sst>
 </file>
@@ -10956,8 +10959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView tabSelected="1" topLeftCell="A1187" workbookViewId="0">
+      <selection activeCell="E1200" sqref="E1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28043,8 +28046,11 @@
       <c r="C1200" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1200" s="8" t="s">
-        <v>8</v>
+      <c r="D1200" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E1200" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59BF34-5D7B-4501-81D5-CCB1FF0559C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C801EB4A-8D82-48B4-B929-3A80F8C9E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3498">
   <si>
     <t>ID</t>
   </si>
@@ -10527,6 +10527,9 @@
   </si>
   <si>
     <t>Tough DP, similar to LIS</t>
+  </si>
+  <si>
+    <t>Tough problem, check OneNote</t>
   </si>
 </sst>
 </file>
@@ -10959,8 +10962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1187" workbookViewId="0">
-      <selection activeCell="E1200" sqref="E1200"/>
+    <sheetView tabSelected="1" topLeftCell="A797" workbookViewId="0">
+      <selection activeCell="E810" sqref="E810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12923,8 +12926,8 @@
       <c r="C135" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E135" s="8" t="s">
-        <v>8</v>
+      <c r="E135" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -22508,8 +22511,11 @@
       <c r="C810" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E810" s="8" t="s">
-        <v>8</v>
+      <c r="D810" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E810" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -29921,8 +29927,11 @@
       <c r="C1332" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1332" s="8" t="s">
-        <v>8</v>
+      <c r="D1332" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E1332" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -33953,8 +33962,8 @@
       <c r="C1617" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1617" s="8" t="s">
-        <v>8</v>
+      <c r="E1617" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1618" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C801EB4A-8D82-48B4-B929-3A80F8C9E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA25C21-89B6-4E79-851E-BB82ACE25D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3500">
   <si>
     <t>ID</t>
   </si>
@@ -10530,6 +10530,12 @@
   </si>
   <si>
     <t>Tough problem, check OneNote</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>String Bruteforce, Make all possible and add the ones within the range to the answer</t>
   </si>
 </sst>
 </file>
@@ -10962,8 +10968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A797" workbookViewId="0">
-      <selection activeCell="E810" sqref="E810"/>
+    <sheetView tabSelected="1" topLeftCell="A1087" workbookViewId="0">
+      <selection activeCell="D1101" sqref="D1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26619,8 +26625,11 @@
       <c r="C1100" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1100" s="8" t="s">
-        <v>8</v>
+      <c r="D1100" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E1100" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -27777,8 +27786,11 @@
       <c r="C1181" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1181" s="8" t="s">
-        <v>8</v>
+      <c r="D1181" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E1181" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA25C21-89B6-4E79-851E-BB82ACE25D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5006CB32-E02A-4C1A-B6EF-4012C5885E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3501">
   <si>
     <t>ID</t>
   </si>
@@ -10536,6 +10536,9 @@
   </si>
   <si>
     <t>String Bruteforce, Make all possible and add the ones within the range to the answer</t>
+  </si>
+  <si>
+    <t>Two Pointer, Greedy</t>
   </si>
 </sst>
 </file>
@@ -10968,8 +10971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1087" workbookViewId="0">
-      <selection activeCell="D1101" sqref="D1101"/>
+    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
+      <selection activeCell="D693" sqref="D693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20858,8 +20861,11 @@
       <c r="C693" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E693" s="8" t="s">
-        <v>8</v>
+      <c r="D693" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E693" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5006CB32-E02A-4C1A-B6EF-4012C5885E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36081AE-5E81-4C93-99FE-56F3C9BAEFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3502">
   <si>
     <t>ID</t>
   </si>
@@ -10539,6 +10539,9 @@
   </si>
   <si>
     <t>Two Pointer, Greedy</t>
+  </si>
+  <si>
+    <t>DP. Explained in partly in code and partly in Onenote</t>
   </si>
 </sst>
 </file>
@@ -10971,8 +10974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
-      <selection activeCell="D693" sqref="D693"/>
+    <sheetView tabSelected="1" topLeftCell="A1429" workbookViewId="0">
+      <selection activeCell="D1442" sqref="D1442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31509,8 +31512,11 @@
       <c r="C1442" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1442" s="8" t="s">
-        <v>8</v>
+      <c r="D1442" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E1442" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1443" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36081AE-5E81-4C93-99FE-56F3C9BAEFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED4870-067B-4F72-9A0D-6D4D4F683000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3503">
   <si>
     <t>ID</t>
   </si>
@@ -10542,6 +10542,9 @@
   </si>
   <si>
     <t>DP. Explained in partly in code and partly in Onenote</t>
+  </si>
+  <si>
+    <t>Segment Tree</t>
   </si>
 </sst>
 </file>
@@ -10974,8 +10977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1429" workbookViewId="0">
-      <selection activeCell="D1442" sqref="D1442"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="E291" sqref="E291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15155,8 +15158,11 @@
       <c r="C291" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E291" s="8" t="s">
-        <v>8</v>
+      <c r="D291" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E291" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED4870-067B-4F72-9A0D-6D4D4F683000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA05FE2-1A07-44AC-83A8-83B63152F5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3504">
   <si>
     <t>ID</t>
   </si>
@@ -10545,6 +10545,9 @@
   </si>
   <si>
     <t>Segment Tree</t>
+  </si>
+  <si>
+    <t>Observation Based</t>
   </si>
 </sst>
 </file>
@@ -10977,8 +10980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="E291" sqref="E291"/>
+    <sheetView tabSelected="1" topLeftCell="B488" workbookViewId="0">
+      <selection activeCell="D496" sqref="D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16355,8 +16358,11 @@
       <c r="C375" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E375" s="8" t="s">
-        <v>8</v>
+      <c r="D375" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E375" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -18076,8 +18082,11 @@
       <c r="C496" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E496" s="8" t="s">
-        <v>8</v>
+      <c r="D496" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E496" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA05FE2-1A07-44AC-83A8-83B63152F5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E9332C-C961-4488-B833-FCC935BBC275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3505">
   <si>
     <t>ID</t>
   </si>
@@ -10548,6 +10548,9 @@
   </si>
   <si>
     <t>Observation Based</t>
+  </si>
+  <si>
+    <t>Line Sweep and Priority Queue</t>
   </si>
 </sst>
 </file>
@@ -10980,8 +10983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B488" workbookViewId="0">
-      <selection activeCell="D496" sqref="D496"/>
+    <sheetView tabSelected="1" topLeftCell="B195" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13920,8 +13923,11 @@
       <c r="C203" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E203" s="8" t="s">
-        <v>8</v>
+      <c r="D203" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E203" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E9332C-C961-4488-B833-FCC935BBC275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378D44B-AEEC-4B78-A7DB-7815DF615613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10983,8 +10983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B195" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView tabSelected="1" topLeftCell="B510" workbookViewId="0">
+      <selection activeCell="D518" sqref="D518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18402,8 +18402,11 @@
       <c r="C518" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E518" s="8" t="s">
-        <v>8</v>
+      <c r="D518" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E518" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378D44B-AEEC-4B78-A7DB-7815DF615613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966A20D-D152-4048-A908-901C9BCFBD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3506">
   <si>
     <t>ID</t>
   </si>
@@ -10551,6 +10551,9 @@
   </si>
   <si>
     <t>Line Sweep and Priority Queue</t>
+  </si>
+  <si>
+    <t>PriorityQueue</t>
   </si>
 </sst>
 </file>
@@ -10983,8 +10986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B510" workbookViewId="0">
-      <selection activeCell="D518" sqref="D518"/>
+    <sheetView tabSelected="1" topLeftCell="B920" workbookViewId="0">
+      <selection activeCell="D928" sqref="D928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24220,8 +24223,11 @@
       <c r="C928" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E928" s="8" t="s">
-        <v>8</v>
+      <c r="D928" t="s">
+        <v>3505</v>
+      </c>
+      <c r="E928" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966A20D-D152-4048-A908-901C9BCFBD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F6DC1-C2F0-4E97-A53A-E58BF3157494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10986,8 +10986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B920" workbookViewId="0">
-      <selection activeCell="D928" sqref="D928"/>
+    <sheetView tabSelected="1" topLeftCell="B373" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16460,8 +16460,11 @@
       <c r="C381" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E381" s="8" t="s">
-        <v>8</v>
+      <c r="D381" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E381" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F6DC1-C2F0-4E97-A53A-E58BF3157494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D02C734-6DA3-4B09-B347-12E4476977ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3507">
   <si>
     <t>ID</t>
   </si>
@@ -10554,6 +10554,9 @@
   </si>
   <si>
     <t>PriorityQueue</t>
+  </si>
+  <si>
+    <t>BST Iterator implemented</t>
   </si>
 </sst>
 </file>
@@ -10986,8 +10989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B373" workbookViewId="0">
-      <selection activeCell="D381" sqref="D381"/>
+    <sheetView tabSelected="1" topLeftCell="B1229" workbookViewId="0">
+      <selection activeCell="D1237" sqref="D1237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28636,8 +28639,11 @@
       <c r="C1237" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1237" s="8" t="s">
-        <v>8</v>
+      <c r="D1237" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E1237" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D02C734-6DA3-4B09-B347-12E4476977ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A2DE2-0411-42FD-BB50-0F8E151CD847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6647" uniqueCount="3507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="3509">
   <si>
     <t>ID</t>
   </si>
@@ -10557,6 +10557,12 @@
   </si>
   <si>
     <t>BST Iterator implemented</t>
+  </si>
+  <si>
+    <t>Concept similar to Jump Game II</t>
+  </si>
+  <si>
+    <t>DFS or recursion</t>
   </si>
 </sst>
 </file>
@@ -10989,8 +10995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1229" workbookViewId="0">
-      <selection activeCell="D1237" sqref="D1237"/>
+    <sheetView tabSelected="1" topLeftCell="B1302" workbookViewId="0">
+      <selection activeCell="E1310" sqref="E1310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28886,8 +28892,8 @@
       <c r="C1254" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1254" s="8" t="s">
-        <v>8</v>
+      <c r="E1254" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -28914,8 +28920,11 @@
       <c r="C1256" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1256" s="8" t="s">
-        <v>8</v>
+      <c r="D1256" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E1256" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -29673,8 +29682,11 @@
       <c r="C1310" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1310" s="8" t="s">
-        <v>8</v>
+      <c r="D1310" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E1310" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49A2DE2-0411-42FD-BB50-0F8E151CD847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5054D18A-B2AE-4515-81EC-41537FEFB621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="3509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="3510">
   <si>
     <t>ID</t>
   </si>
@@ -10563,6 +10563,9 @@
   </si>
   <si>
     <t>DFS or recursion</t>
+  </si>
+  <si>
+    <t>DP, Printing LIS logic</t>
   </si>
 </sst>
 </file>
@@ -10995,8 +10998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1302" workbookViewId="0">
-      <selection activeCell="E1310" sqref="E1310"/>
+    <sheetView tabSelected="1" topLeftCell="B1059" workbookViewId="0">
+      <selection activeCell="D1072" sqref="D1072"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13601,8 +13604,11 @@
       <c r="C180" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E180" s="8" t="s">
-        <v>8</v>
+      <c r="D180" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E180" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -26281,8 +26287,11 @@
       <c r="C1072" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1072" s="8" t="s">
-        <v>8</v>
+      <c r="D1072" t="s">
+        <v>3509</v>
+      </c>
+      <c r="E1072" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5054D18A-B2AE-4515-81EC-41537FEFB621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB362AA6-36AA-4F60-A88F-9F0BC9C0A539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="3510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3510">
   <si>
     <t>ID</t>
   </si>
@@ -10998,8 +10998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1059" workbookViewId="0">
-      <selection activeCell="D1072" sqref="D1072"/>
+    <sheetView tabSelected="1" topLeftCell="B1531" workbookViewId="0">
+      <selection activeCell="D1544" sqref="D1544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33006,8 +33006,8 @@
       <c r="C1544" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1544" s="8" t="s">
-        <v>8</v>
+      <c r="E1544" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1545" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB362AA6-36AA-4F60-A88F-9F0BC9C0A539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC2AF2-4609-4D79-BFB5-3D1D5D8825B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3512">
   <si>
     <t>ID</t>
   </si>
@@ -10566,6 +10566,12 @@
   </si>
   <si>
     <t>DP, Printing LIS logic</t>
+  </si>
+  <si>
+    <t>Priority Queue</t>
+  </si>
+  <si>
+    <t>DFS on grid</t>
   </si>
 </sst>
 </file>
@@ -10998,8 +11004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1531" workbookViewId="0">
-      <selection activeCell="D1544" sqref="D1544"/>
+    <sheetView tabSelected="1" topLeftCell="B973" workbookViewId="0">
+      <selection activeCell="E986" sqref="E986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19037,8 +19043,11 @@
       <c r="C561" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E561" s="8" t="s">
-        <v>8</v>
+      <c r="D561" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E561" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -25068,8 +25077,11 @@
       <c r="C986" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E986" s="8" t="s">
-        <v>8</v>
+      <c r="D986" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E986" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC2AF2-4609-4D79-BFB5-3D1D5D8825B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D390AA-FBA6-496B-9CDE-115A99350D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11004,8 +11004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B973" workbookViewId="0">
-      <selection activeCell="E986" sqref="E986"/>
+    <sheetView tabSelected="1" topLeftCell="B1195" workbookViewId="0">
+      <selection activeCell="D1209" sqref="D1209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28251,8 +28251,11 @@
       <c r="C1208" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1208" s="8" t="s">
-        <v>8</v>
+      <c r="D1208" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E1208" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D390AA-FBA6-496B-9CDE-115A99350D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE8D52E-28ED-4D19-8A4C-73AA9D9A4A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3513">
   <si>
     <t>ID</t>
   </si>
@@ -10572,6 +10572,9 @@
   </si>
   <si>
     <t>DFS on grid</t>
+  </si>
+  <si>
+    <t>Tricky, remember way to handle negative remainder</t>
   </si>
 </sst>
 </file>
@@ -11004,8 +11007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1195" workbookViewId="0">
-      <selection activeCell="D1209" sqref="D1209"/>
+    <sheetView tabSelected="1" topLeftCell="B1370" workbookViewId="0">
+      <selection activeCell="E1383" sqref="E1383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30746,8 +30749,11 @@
       <c r="C1383" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1383" s="8" t="s">
-        <v>8</v>
+      <c r="D1383" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E1383" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1384" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE8D52E-28ED-4D19-8A4C-73AA9D9A4A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458D4962-D22F-4AC5-BC12-D2AD5A1B5F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3514">
   <si>
     <t>ID</t>
   </si>
@@ -10575,6 +10575,9 @@
   </si>
   <si>
     <t>Tricky, remember way to handle negative remainder</t>
+  </si>
+  <si>
+    <t>HashMap</t>
   </si>
 </sst>
 </file>
@@ -11007,8 +11010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1370" workbookViewId="0">
-      <selection activeCell="E1383" sqref="E1383"/>
+    <sheetView tabSelected="1" topLeftCell="B403" workbookViewId="0">
+      <selection activeCell="E416" sqref="E416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16983,8 +16986,11 @@
       <c r="C416" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E416" s="8" t="s">
-        <v>8</v>
+      <c r="D416" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E416" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458D4962-D22F-4AC5-BC12-D2AD5A1B5F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB6695-2655-447C-A7AF-159967F92E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3516">
   <si>
     <t>ID</t>
   </si>
@@ -10578,6 +10578,12 @@
   </si>
   <si>
     <t>HashMap</t>
+  </si>
+  <si>
+    <t>IMP QUESTION</t>
+  </si>
+  <si>
+    <t>Very Tricky</t>
   </si>
 </sst>
 </file>
@@ -11010,8 +11016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B403" workbookViewId="0">
-      <selection activeCell="E416" sqref="E416"/>
+    <sheetView tabSelected="1" topLeftCell="B1381" workbookViewId="0">
+      <selection activeCell="D1394" sqref="D1394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29645,8 +29651,11 @@
       <c r="C1305" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1305" s="8" t="s">
-        <v>8</v>
+      <c r="D1305" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E1305" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -30915,8 +30924,11 @@
       <c r="C1394" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1394" s="8" t="s">
-        <v>8</v>
+      <c r="D1394" t="s">
+        <v>3515</v>
+      </c>
+      <c r="E1394" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1395" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AB6695-2655-447C-A7AF-159967F92E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57372B59-C33B-4671-98E2-0ADFB0A00169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3518">
   <si>
     <t>ID</t>
   </si>
@@ -10584,6 +10584,12 @@
   </si>
   <si>
     <t>Very Tricky</t>
+  </si>
+  <si>
+    <t>Not Hard, Knapsack DP</t>
+  </si>
+  <si>
+    <t>Same as Stone Game, just DP needed as array can be odd sized too</t>
   </si>
 </sst>
 </file>
@@ -11016,8 +11022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1381" workbookViewId="0">
-      <selection activeCell="D1394" sqref="D1394"/>
+    <sheetView tabSelected="1" topLeftCell="B449" workbookViewId="0">
+      <selection activeCell="D462" sqref="D462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17645,8 +17651,11 @@
       <c r="C462" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E462" s="8" t="s">
-        <v>8</v>
+      <c r="D462" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E462" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -29578,8 +29587,11 @@
       <c r="C1300" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1300" s="8" t="s">
-        <v>8</v>
+      <c r="D1300" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E1300" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57372B59-C33B-4671-98E2-0ADFB0A00169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BDDF17-9ABF-4959-B581-E30EEA5430F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3519">
   <si>
     <t>ID</t>
   </si>
@@ -10590,6 +10590,9 @@
   </si>
   <si>
     <t>Same as Stone Game, just DP needed as array can be odd sized too</t>
+  </si>
+  <si>
+    <t>DFS, remember to unvisit cell after exploration</t>
   </si>
 </sst>
 </file>
@@ -11022,8 +11025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B449" workbookViewId="0">
-      <selection activeCell="D462" sqref="D462"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12180,8 +12183,11 @@
       <c r="C80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>8</v>
+      <c r="D80" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E80" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BDDF17-9ABF-4959-B581-E30EEA5430F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F5509-8490-463D-B8B4-B9558486D8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3521">
   <si>
     <t>ID</t>
   </si>
@@ -10593,6 +10593,12 @@
   </si>
   <si>
     <t>DFS, remember to unvisit cell after exploration</t>
+  </si>
+  <si>
+    <t>Coordinate Compression</t>
+  </si>
+  <si>
+    <t>Line Sweep, Little Tough</t>
   </si>
 </sst>
 </file>
@@ -11025,8 +11031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="B1666" workbookViewId="0">
+      <selection activeCell="D1679" sqref="D1679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26758,8 +26764,11 @@
       <c r="C1102" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1102" s="8" t="s">
-        <v>8</v>
+      <c r="D1102" t="s">
+        <v>3519</v>
+      </c>
+      <c r="E1102" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -34971,8 +34980,11 @@
       <c r="C1679" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1679" s="8" t="s">
-        <v>8</v>
+      <c r="D1679" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E1679" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1680" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179F5509-8490-463D-B8B4-B9558486D8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FABD0B-1FCA-41F4-B244-D9D8962F1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3522">
   <si>
     <t>ID</t>
   </si>
@@ -10599,6 +10599,9 @@
   </si>
   <si>
     <t>Line Sweep, Little Tough</t>
+  </si>
+  <si>
+    <t>Monotonic Queue used to get a min increasing str</t>
   </si>
 </sst>
 </file>
@@ -11031,8 +11034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1666" workbookViewId="0">
-      <selection activeCell="D1679" sqref="D1679"/>
+    <sheetView tabSelected="1" topLeftCell="B373" workbookViewId="0">
+      <selection activeCell="E386" sqref="E386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16584,8 +16587,11 @@
       <c r="C386" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E386" s="8" t="s">
-        <v>8</v>
+      <c r="D386" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E386" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FABD0B-1FCA-41F4-B244-D9D8962F1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF0B7E9-8BD0-4635-8CA0-138ADABF407B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3524">
   <si>
     <t>ID</t>
   </si>
@@ -10602,6 +10602,12 @@
   </si>
   <si>
     <t>Monotonic Queue used to get a min increasing str</t>
+  </si>
+  <si>
+    <t>Majority Voting Algorithm</t>
+  </si>
+  <si>
+    <t>2 Heaps ---  Solved in One Go</t>
   </si>
 </sst>
 </file>
@@ -11034,8 +11040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B373" workbookViewId="0">
-      <selection activeCell="E386" sqref="E386"/>
+    <sheetView tabSelected="1" topLeftCell="B1624" workbookViewId="0">
+      <selection activeCell="E1640" sqref="E1640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13500,8 +13506,11 @@
       <c r="C170" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E170" s="8" t="s">
-        <v>8</v>
+      <c r="D170" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E170" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -34440,8 +34449,11 @@
       <c r="C1640" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1640" s="8" t="s">
-        <v>8</v>
+      <c r="D1640" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E1640" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1641" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF0B7E9-8BD0-4635-8CA0-138ADABF407B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B64E0-3E9D-41B9-A23D-E545C0C7C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11040,8 +11040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1624" workbookViewId="0">
-      <selection activeCell="E1640" sqref="E1640"/>
+    <sheetView tabSelected="1" topLeftCell="B491" workbookViewId="0">
+      <selection activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18284,8 +18284,11 @@
       <c r="C504" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E504" s="8" t="s">
-        <v>8</v>
+      <c r="D504" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E504" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B64E0-3E9D-41B9-A23D-E545C0C7C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A234DBD-2CDE-42D8-B8BE-71B66FCB170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3525">
   <si>
     <t>ID</t>
   </si>
@@ -10608,6 +10608,9 @@
   </si>
   <si>
     <t>2 Heaps ---  Solved in One Go</t>
+  </si>
+  <si>
+    <t>Recursion</t>
   </si>
 </sst>
 </file>
@@ -11040,8 +11043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B491" workbookViewId="0">
-      <selection activeCell="E504" sqref="E504"/>
+    <sheetView tabSelected="1" topLeftCell="B712" workbookViewId="0">
+      <selection activeCell="D726" sqref="D726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21429,8 +21432,11 @@
       <c r="C725" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E725" s="8" t="s">
-        <v>8</v>
+      <c r="D725" t="s">
+        <v>3524</v>
+      </c>
+      <c r="E725" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A234DBD-2CDE-42D8-B8BE-71B66FCB170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B200E5-57EA-432C-978A-37B161800532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3528">
   <si>
     <t>ID</t>
   </si>
@@ -10611,6 +10611,15 @@
   </si>
   <si>
     <t>Recursion</t>
+  </si>
+  <si>
+    <t>Tough to think, important to revise</t>
+  </si>
+  <si>
+    <t>PostOrder Traversal</t>
+  </si>
+  <si>
+    <t>Two Passes</t>
   </si>
 </sst>
 </file>
@@ -11043,8 +11052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B712" workbookViewId="0">
-      <selection activeCell="D726" sqref="D726"/>
+    <sheetView tabSelected="1" topLeftCell="B123" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13024,8 +13033,11 @@
       <c r="C136" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E136" s="8" t="s">
-        <v>8</v>
+      <c r="D136" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E136" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -24397,8 +24409,11 @@
       <c r="C934" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E934" s="8" t="s">
-        <v>8</v>
+      <c r="D934" t="s">
+        <v>3525</v>
+      </c>
+      <c r="E934" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -28993,8 +29008,11 @@
       <c r="C1255" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1255" s="8" t="s">
-        <v>8</v>
+      <c r="D1255" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E1255" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B200E5-57EA-432C-978A-37B161800532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665EBB17-5E79-442D-8E1E-FB05970134F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3530">
   <si>
     <t>ID</t>
   </si>
@@ -10620,6 +10620,12 @@
   </si>
   <si>
     <t>Two Passes</t>
+  </si>
+  <si>
+    <t>Sweep Line</t>
+  </si>
+  <si>
+    <t>Good BFS Question, making 2 adjacency lists</t>
   </si>
 </sst>
 </file>
@@ -11052,8 +11058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B123" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="B1099" workbookViewId="0">
+      <selection activeCell="D1112" sqref="D1112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14503,8 +14509,11 @@
       <c r="C238" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E238" s="8" t="s">
-        <v>8</v>
+      <c r="D238" t="s">
+        <v>3528</v>
+      </c>
+      <c r="E238" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -26949,8 +26958,11 @@
       <c r="C1112" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1112" s="8" t="s">
-        <v>8</v>
+      <c r="D1112" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E1112" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665EBB17-5E79-442D-8E1E-FB05970134F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25ADABA-B73D-4BBB-8F73-3A657E979FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3532">
   <si>
     <t>ID</t>
   </si>
@@ -10626,6 +10626,12 @@
   </si>
   <si>
     <t>Good BFS Question, making 2 adjacency lists</t>
+  </si>
+  <si>
+    <t>Union Find + HashMap (Heavy Implementation)</t>
+  </si>
+  <si>
+    <t>Grid DP</t>
   </si>
 </sst>
 </file>
@@ -11058,8 +11064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1099" workbookViewId="0">
-      <selection activeCell="D1112" sqref="D1112"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="E536" sqref="E536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12452,8 +12458,11 @@
       <c r="C96" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>8</v>
+      <c r="D96" t="s">
+        <v>3402</v>
+      </c>
+      <c r="E96" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -18768,8 +18777,11 @@
       <c r="C536" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E536" s="8" t="s">
-        <v>8</v>
+      <c r="D536" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E536" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -30307,8 +30319,11 @@
       <c r="C1345" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1345" s="8" t="s">
-        <v>8</v>
+      <c r="D1345" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E1345" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -33541,8 +33556,11 @@
       <c r="C1573" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1573" s="8" t="s">
-        <v>8</v>
+      <c r="D1573" t="s">
+        <v>3530</v>
+      </c>
+      <c r="E1573" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1574" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25ADABA-B73D-4BBB-8F73-3A657E979FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4A056-94DB-45E7-A3AD-9280D27CD6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3532">
   <si>
     <t>ID</t>
   </si>
@@ -11064,8 +11064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="E536" sqref="E536"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12208,8 +12208,8 @@
       <c r="C79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>8</v>
+      <c r="E79" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4A056-94DB-45E7-A3AD-9280D27CD6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058E8367-8A42-4142-82A9-358FBF081A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3533">
   <si>
     <t>ID</t>
   </si>
@@ -10632,6 +10632,9 @@
   </si>
   <si>
     <t>Grid DP</t>
+  </si>
+  <si>
+    <t>Nice DP problem</t>
   </si>
 </sst>
 </file>
@@ -11064,8 +11067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16141,8 +16144,11 @@
       <c r="C352" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E352" s="8" t="s">
-        <v>8</v>
+      <c r="D352" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E352" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058E8367-8A42-4142-82A9-358FBF081A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3792CDB-87B9-4818-8DF2-BAC5D4426191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3534">
   <si>
     <t>ID</t>
   </si>
@@ -10635,6 +10635,9 @@
   </si>
   <si>
     <t>Nice DP problem</t>
+  </si>
+  <si>
+    <t>Fixed Sliding Window</t>
   </si>
 </sst>
 </file>
@@ -11067,8 +11070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="D352" sqref="D352"/>
+    <sheetView tabSelected="1" topLeftCell="A1338" workbookViewId="0">
+      <selection activeCell="D1351" sqref="D1351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30412,8 +30415,11 @@
       <c r="C1351" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1351" s="8" t="s">
-        <v>8</v>
+      <c r="D1351" t="s">
+        <v>3533</v>
+      </c>
+      <c r="E1351" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1352" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3792CDB-87B9-4818-8DF2-BAC5D4426191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07878CE-76A9-42EA-85EA-5621C683E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3535">
   <si>
     <t>ID</t>
   </si>
@@ -10638,6 +10638,9 @@
   </si>
   <si>
     <t>Fixed Sliding Window</t>
+  </si>
+  <si>
+    <t>Kruskal MST Algo used</t>
   </si>
 </sst>
 </file>
@@ -11070,8 +11073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1338" workbookViewId="0">
-      <selection activeCell="D1351" sqref="D1351"/>
+    <sheetView tabSelected="1" topLeftCell="A1439" workbookViewId="0">
+      <selection activeCell="D1457" sqref="D1457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31932,8 +31935,11 @@
       <c r="C1457" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1457" s="8" t="s">
-        <v>8</v>
+      <c r="D1457" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E1457" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1458" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07878CE-76A9-42EA-85EA-5621C683E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1871485F-802B-40A0-AF0D-46F967B29491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3536">
   <si>
     <t>ID</t>
   </si>
@@ -10641,6 +10641,9 @@
   </si>
   <si>
     <t>Kruskal MST Algo used</t>
+  </si>
+  <si>
+    <t>DSU + HashMap to maintain components</t>
   </si>
 </sst>
 </file>
@@ -11073,8 +11076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1439" workbookViewId="0">
-      <selection activeCell="D1457" sqref="D1457"/>
+    <sheetView tabSelected="1" topLeftCell="A1158" workbookViewId="0">
+      <selection activeCell="D1171" sqref="D1171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27829,8 +27832,11 @@
       <c r="C1171" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1171" s="8" t="s">
-        <v>8</v>
+      <c r="D1171" t="s">
+        <v>3535</v>
+      </c>
+      <c r="E1171" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1871485F-802B-40A0-AF0D-46F967B29491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9BD7A7-DCD5-461E-9493-03524339BAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3537">
   <si>
     <t>ID</t>
   </si>
@@ -10644,6 +10644,9 @@
   </si>
   <si>
     <t>DSU + HashMap to maintain components</t>
+  </si>
+  <si>
+    <t>Crazy Backtracking, Explanation in Code File</t>
   </si>
 </sst>
 </file>
@@ -11076,8 +11079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1158" workbookViewId="0">
-      <selection activeCell="D1171" sqref="D1171"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15264,8 +15267,11 @@
       <c r="C290" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E290" s="8" t="s">
-        <v>8</v>
+      <c r="D290" t="s">
+        <v>3536</v>
+      </c>
+      <c r="E290" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9BD7A7-DCD5-461E-9493-03524339BAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD51FE19-28E2-4485-8EAF-F3F412D19318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3540">
   <si>
     <t>ID</t>
   </si>
@@ -10647,6 +10647,15 @@
   </si>
   <si>
     <t>Crazy Backtracking, Explanation in Code File</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Easy problem</t>
+  </si>
+  <si>
+    <t>Amazing Problem</t>
   </si>
 </sst>
 </file>
@@ -11079,8 +11088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="D290" sqref="D290"/>
+    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
+      <selection activeCell="D704" sqref="D704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21186,8 +21195,11 @@
       <c r="C704" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E704" s="8" t="s">
-        <v>8</v>
+      <c r="D704" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E704" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -21200,8 +21212,11 @@
       <c r="C705" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E705" s="8" t="s">
-        <v>8</v>
+      <c r="D705" t="s">
+        <v>3537</v>
+      </c>
+      <c r="E705" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -34354,8 +34369,11 @@
       <c r="C1627" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1627" s="8" t="s">
-        <v>8</v>
+      <c r="D1627" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E1627" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1628" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD51FE19-28E2-4485-8EAF-F3F412D19318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA20F45-3D2D-4225-B476-AF9DED102D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3541">
   <si>
     <t>ID</t>
   </si>
@@ -10656,6 +10656,9 @@
   </si>
   <si>
     <t>Amazing Problem</t>
+  </si>
+  <si>
+    <t>Tricky, Good Observation</t>
   </si>
 </sst>
 </file>
@@ -11088,8 +11091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A691" workbookViewId="0">
-      <selection activeCell="D704" sqref="D704"/>
+    <sheetView tabSelected="1" topLeftCell="A1520" workbookViewId="0">
+      <selection activeCell="D1533" sqref="D1533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33032,8 +33035,11 @@
       <c r="C1533" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1533" s="8" t="s">
-        <v>8</v>
+      <c r="D1533" t="s">
+        <v>3540</v>
+      </c>
+      <c r="E1533" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1534" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA20F45-3D2D-4225-B476-AF9DED102D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C04D7AF-2492-4BDC-97FB-1115855B91C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3542">
   <si>
     <t>ID</t>
   </si>
@@ -10659,6 +10659,9 @@
   </si>
   <si>
     <t>Tricky, Good Observation</t>
+  </si>
+  <si>
+    <t>Sorting and Greedy pick</t>
   </si>
 </sst>
 </file>
@@ -11091,8 +11094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1520" workbookViewId="0">
-      <selection activeCell="D1533" sqref="D1533"/>
+    <sheetView tabSelected="1" topLeftCell="A1091" workbookViewId="0">
+      <selection activeCell="D1107" sqref="D1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26936,8 +26939,11 @@
       <c r="C1107" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1107" s="8" t="s">
-        <v>8</v>
+      <c r="D1107" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E1107" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C04D7AF-2492-4BDC-97FB-1115855B91C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E324EB1B-ED53-4B4D-BCBF-96FDD9900D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3543">
   <si>
     <t>ID</t>
   </si>
@@ -10662,6 +10662,9 @@
   </si>
   <si>
     <t>Sorting and Greedy pick</t>
+  </si>
+  <si>
+    <t>https://youtu.be/13m9ZCB8gjw</t>
   </si>
 </sst>
 </file>
@@ -11094,8 +11097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1091" workbookViewId="0">
-      <selection activeCell="D1107" sqref="D1107"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14307,8 +14310,11 @@
       <c r="C221" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E221" s="8" t="s">
-        <v>8</v>
+      <c r="D221" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="E221" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -37185,8 +37191,9 @@
     <hyperlink ref="B1701" r:id="rId1711" xr:uid="{A58925E6-DAF0-4F95-A761-4E0C09A5E431}"/>
     <hyperlink ref="B1702" r:id="rId1712" xr:uid="{F81604E5-E7CC-466A-83EC-DB2C3214D809}"/>
     <hyperlink ref="D428" r:id="rId1713" xr:uid="{18096D3C-0C4B-45BD-BBFD-FF3BB6761391}"/>
+    <hyperlink ref="D221" r:id="rId1714" xr:uid="{005344A0-7AA3-4C89-8586-CFF6936ACB3E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1714"/>
+  <pageSetup orientation="portrait" r:id="rId1715"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E324EB1B-ED53-4B4D-BCBF-96FDD9900D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AC35A7-C086-46C3-9A5E-02E85C70DF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3544">
   <si>
     <t>ID</t>
   </si>
@@ -10665,6 +10665,9 @@
   </si>
   <si>
     <t>https://youtu.be/13m9ZCB8gjw</t>
+  </si>
+  <si>
+    <t>DP on Trees, HARD</t>
   </si>
 </sst>
 </file>
@@ -11097,8 +11100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView tabSelected="1" topLeftCell="A768" workbookViewId="0">
+      <selection activeCell="D781" sqref="D781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22312,8 +22315,11 @@
       <c r="C781" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E781" s="8" t="s">
-        <v>8</v>
+      <c r="D781" t="s">
+        <v>3543</v>
+      </c>
+      <c r="E781" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AC35A7-C086-46C3-9A5E-02E85C70DF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87111C6E-0AD9-43EC-B199-465632BC3E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3546">
   <si>
     <t>ID</t>
   </si>
@@ -10668,6 +10668,12 @@
   </si>
   <si>
     <t>DP on Trees, HARD</t>
+  </si>
+  <si>
+    <t>Tree DP, storing length of left and right path</t>
+  </si>
+  <si>
+    <t>Stack + Tricky, but solved by self</t>
   </si>
 </sst>
 </file>
@@ -11100,8 +11106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A768" workbookViewId="0">
-      <selection activeCell="D781" sqref="D781"/>
+    <sheetView tabSelected="1" topLeftCell="A1190" workbookViewId="0">
+      <selection activeCell="E1203" sqref="E1203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28343,8 +28349,11 @@
       <c r="C1203" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1203" s="8" t="s">
-        <v>8</v>
+      <c r="D1203" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E1203" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -29378,8 +29387,11 @@
       <c r="C1275" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1275" s="8" t="s">
-        <v>8</v>
+      <c r="D1275" t="s">
+        <v>3544</v>
+      </c>
+      <c r="E1275" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87111C6E-0AD9-43EC-B199-465632BC3E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB68A13-34FB-490C-AFC2-4B987F212FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3547">
   <si>
     <t>ID</t>
   </si>
@@ -10674,6 +10674,9 @@
   </si>
   <si>
     <t>Stack + Tricky, but solved by self</t>
+  </si>
+  <si>
+    <t>Tough problem, Binary Search and Sliding window for Greedy part</t>
   </si>
 </sst>
 </file>
@@ -11106,8 +11109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1190" workbookViewId="0">
-      <selection activeCell="E1203" sqref="E1203"/>
+    <sheetView tabSelected="1" topLeftCell="A1487" workbookViewId="0">
+      <selection activeCell="E1500" sqref="E1500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20364,8 +20367,11 @@
       <c r="C644" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E644" s="8" t="s">
-        <v>8</v>
+      <c r="D644" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E644" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -32600,8 +32606,11 @@
       <c r="C1500" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1500" s="8" t="s">
-        <v>8</v>
+      <c r="D1500" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E1500" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1501" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB68A13-34FB-490C-AFC2-4B987F212FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F55A383-9722-4D65-9834-A09544C9F5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3549">
   <si>
     <t>ID</t>
   </si>
@@ -10677,6 +10677,12 @@
   </si>
   <si>
     <t>Tough problem, Binary Search and Sliding window for Greedy part</t>
+  </si>
+  <si>
+    <t>Sliding Window, O(26n)</t>
+  </si>
+  <si>
+    <t>Track odd prefix sums and even prefix sums</t>
   </si>
 </sst>
 </file>
@@ -11109,8 +11115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1487" workbookViewId="0">
-      <selection activeCell="E1500" sqref="E1500"/>
+    <sheetView tabSelected="1" topLeftCell="A1379" workbookViewId="0">
+      <selection activeCell="E1392" sqref="E1392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16997,8 +17003,11 @@
       <c r="C408" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E408" s="8" t="s">
-        <v>8</v>
+      <c r="D408" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E408" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -31073,8 +31082,11 @@
       <c r="C1392" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1392" s="8" t="s">
-        <v>8</v>
+      <c r="D1392" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E1392" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1393" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F55A383-9722-4D65-9834-A09544C9F5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E306D35A-7AFE-4F68-BF44-1885F485C965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11115,8 +11115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1379" workbookViewId="0">
-      <selection activeCell="E1392" sqref="E1392"/>
+    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
+      <selection activeCell="D929" sqref="D929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24435,8 +24435,11 @@
       <c r="C929" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E929" s="8" t="s">
-        <v>8</v>
+      <c r="D929" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E929" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E306D35A-7AFE-4F68-BF44-1885F485C965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8324D6-E1C5-4FF7-88EF-5A73EE0226DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3550">
   <si>
     <t>ID</t>
   </si>
@@ -10683,6 +10683,9 @@
   </si>
   <si>
     <t>Track odd prefix sums and even prefix sums</t>
+  </si>
+  <si>
+    <t>Merge Sort on LinkedList, read Merge Sort logic and 1st Editorial</t>
   </si>
 </sst>
 </file>
@@ -11115,8 +11118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
-      <selection activeCell="D929" sqref="D929"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13287,8 +13290,11 @@
       <c r="C149" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E149" s="8" t="s">
-        <v>8</v>
+      <c r="D149" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E149" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8324D6-E1C5-4FF7-88EF-5A73EE0226DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509CC69-3976-49AF-BC7B-D3E9ABC4DB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3551">
   <si>
     <t>ID</t>
   </si>
@@ -10686,6 +10686,9 @@
   </si>
   <si>
     <t>Merge Sort on LinkedList, read Merge Sort logic and 1st Editorial</t>
+  </si>
+  <si>
+    <t>Solved, Explanation in OneNote</t>
   </si>
 </sst>
 </file>
@@ -11118,8 +11121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="E347" sqref="E347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16134,8 +16137,11 @@
       <c r="C347" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E347" s="8" t="s">
-        <v>8</v>
+      <c r="D347" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E347" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1509CC69-3976-49AF-BC7B-D3E9ABC4DB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26BE19-9E40-4452-AC30-93BF9D51113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3553">
   <si>
     <t>ID</t>
   </si>
@@ -10689,6 +10689,12 @@
   </si>
   <si>
     <t>Solved, Explanation in OneNote</t>
+  </si>
+  <si>
+    <t>Partial Sums, explained in Java File</t>
+  </si>
+  <si>
+    <t>Stack + Queue</t>
   </si>
 </sst>
 </file>
@@ -11121,8 +11127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="E347" sqref="E347"/>
+    <sheetView tabSelected="1" topLeftCell="A1152" workbookViewId="0">
+      <selection activeCell="D1165" sqref="D1165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27823,8 +27829,11 @@
       <c r="C1165" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1165" s="8" t="s">
-        <v>8</v>
+      <c r="D1165" t="s">
+        <v>3552</v>
+      </c>
+      <c r="E1165" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -31888,8 +31897,11 @@
       <c r="C1447" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1447" s="8" t="s">
-        <v>8</v>
+      <c r="D1447" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E1447" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1448" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26BE19-9E40-4452-AC30-93BF9D51113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E77ACC2-E4ED-4DE8-A8C8-B39B16386DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3555">
   <si>
     <t>ID</t>
   </si>
@@ -10695,6 +10695,12 @@
   </si>
   <si>
     <t>Stack + Queue</t>
+  </si>
+  <si>
+    <t>Implementation Heavy</t>
+  </si>
+  <si>
+    <t>Tough, BFS + DP</t>
   </si>
 </sst>
 </file>
@@ -11127,8 +11133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1152" workbookViewId="0">
-      <selection activeCell="D1165" sqref="D1165"/>
+    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
+      <selection activeCell="E795" sqref="E795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11508,8 +11514,11 @@
       <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>8</v>
+      <c r="D26" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E26" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -22553,8 +22562,11 @@
       <c r="C795" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E795" s="8" t="s">
-        <v>8</v>
+      <c r="D795" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E795" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E77ACC2-E4ED-4DE8-A8C8-B39B16386DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41846224-6330-4970-BC60-2AEB1667C993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11133,8 +11133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
-      <selection activeCell="E795" sqref="E795"/>
+    <sheetView tabSelected="1" topLeftCell="A957" workbookViewId="0">
+      <selection activeCell="D970" sqref="D970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25057,8 +25057,11 @@
       <c r="C970" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E970" s="8" t="s">
-        <v>8</v>
+      <c r="D970" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E970" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41846224-6330-4970-BC60-2AEB1667C993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E12EDC-4D69-4054-9AA7-5F65890EB994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3556">
   <si>
     <t>ID</t>
   </si>
@@ -10701,6 +10701,9 @@
   </si>
   <si>
     <t>Tough, BFS + DP</t>
+  </si>
+  <si>
+    <t>BFS, new way of writing BFS</t>
   </si>
 </sst>
 </file>
@@ -11133,8 +11136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A957" workbookViewId="0">
-      <selection activeCell="D970" sqref="D970"/>
+    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="E594" sqref="E594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19752,6 +19755,9 @@
       </c>
       <c r="C598" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="D598" t="s">
+        <v>3555</v>
       </c>
       <c r="E598" s="8" t="s">
         <v>8</v>

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E12EDC-4D69-4054-9AA7-5F65890EB994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D9B054-5BDA-4719-81EB-66EDC0F2129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11136,8 +11136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="E594" sqref="E594"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="D383" sqref="D383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16677,8 +16677,11 @@
       <c r="C383" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E383" s="8" t="s">
-        <v>8</v>
+      <c r="D383" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E383" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D9B054-5BDA-4719-81EB-66EDC0F2129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56CC885-8352-4E77-9A45-7E6B9B61C617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11136,8 +11136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="D383" sqref="D383"/>
+    <sheetView tabSelected="1" topLeftCell="A888" workbookViewId="0">
+      <selection activeCell="D901" sqref="D901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24079,8 +24079,11 @@
       <c r="C901" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E901" s="8" t="s">
-        <v>8</v>
+      <c r="D901" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E901" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56CC885-8352-4E77-9A45-7E6B9B61C617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36CB903-89DD-4E02-A46A-DEE3768D9D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6645" uniqueCount="3556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3556">
   <si>
     <t>ID</t>
   </si>
@@ -11136,8 +11136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A888" workbookViewId="0">
-      <selection activeCell="D901" sqref="D901"/>
+    <sheetView tabSelected="1" topLeftCell="A1172" workbookViewId="0">
+      <selection activeCell="E1185" sqref="E1185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24152,8 +24152,11 @@
       <c r="C906" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E906" s="8" t="s">
-        <v>8</v>
+      <c r="D906" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E906" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -28154,8 +28157,8 @@
       <c r="C1185" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1185" s="8" t="s">
-        <v>8</v>
+      <c r="E1185" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36CB903-89DD-4E02-A46A-DEE3768D9D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B732C9-4551-4A24-9692-51447598CF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3557">
   <si>
     <t>ID</t>
   </si>
@@ -10704,6 +10704,9 @@
   </si>
   <si>
     <t>BFS, new way of writing BFS</t>
+  </si>
+  <si>
+    <t>Revise, Important DP</t>
   </si>
 </sst>
 </file>
@@ -11136,8 +11139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1172" workbookViewId="0">
-      <selection activeCell="E1185" sqref="E1185"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16357,8 +16360,11 @@
       <c r="C361" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E361" s="8" t="s">
-        <v>8</v>
+      <c r="D361" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E361" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B732C9-4551-4A24-9692-51447598CF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A671B56-12EF-4E36-AD7E-EF4E02C7CD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3558">
   <si>
     <t>ID</t>
   </si>
@@ -10707,6 +10707,9 @@
   </si>
   <si>
     <t>Revise, Important DP</t>
+  </si>
+  <si>
+    <t>Sort each string</t>
   </si>
 </sst>
 </file>
@@ -11139,8 +11142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="D361" sqref="D361"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11871,8 +11874,11 @@
       <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>8</v>
+      <c r="D50" t="s">
+        <v>3557</v>
+      </c>
+      <c r="E50" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A671B56-12EF-4E36-AD7E-EF4E02C7CD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41978966-63F5-4009-B8C8-7E14EBD2FC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11142,8 +11142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A1358" workbookViewId="0">
+      <selection activeCell="E1371" sqref="E1371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30842,8 +30842,11 @@
       <c r="C1371" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1371" s="8" t="s">
-        <v>8</v>
+      <c r="D1371" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E1371" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41978966-63F5-4009-B8C8-7E14EBD2FC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B8FEFF-2D58-4888-A3D7-9B5F4AF4CB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11142,8 +11142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1358" workbookViewId="0">
-      <selection activeCell="E1371" sqref="E1371"/>
+    <sheetView tabSelected="1" topLeftCell="A1620" workbookViewId="0">
+      <selection activeCell="E1633" sqref="E1633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34585,8 +34585,11 @@
       <c r="C1633" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1633" s="8" t="s">
-        <v>8</v>
+      <c r="D1633" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E1633" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1634" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B8FEFF-2D58-4888-A3D7-9B5F4AF4CB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56DBEC8-A92E-4A4B-A624-1934460B58CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3559">
   <si>
     <t>ID</t>
   </si>
@@ -10710,6 +10710,9 @@
   </si>
   <si>
     <t>Sort each string</t>
+  </si>
+  <si>
+    <t>DP on sorted cuts instead of Rod</t>
   </si>
 </sst>
 </file>
@@ -11142,8 +11145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1620" workbookViewId="0">
-      <selection activeCell="E1633" sqref="E1633"/>
+    <sheetView tabSelected="1" topLeftCell="A1413" workbookViewId="0">
+      <selection activeCell="E1426" sqref="E1426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31639,8 +31642,11 @@
       <c r="C1426" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1426" s="8" t="s">
-        <v>8</v>
+      <c r="D1426" t="s">
+        <v>3558</v>
+      </c>
+      <c r="E1426" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1427" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56DBEC8-A92E-4A4B-A624-1934460B58CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384C96CA-CFF1-4AE4-83F8-B49420EE181B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11145,8 +11145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1413" workbookViewId="0">
-      <selection activeCell="E1426" sqref="E1426"/>
+    <sheetView tabSelected="1" topLeftCell="A1327" workbookViewId="0">
+      <selection activeCell="D1340" sqref="D1340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30405,8 +30405,11 @@
       <c r="C1340" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1340" s="8" t="s">
-        <v>8</v>
+      <c r="D1340" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E1340" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384C96CA-CFF1-4AE4-83F8-B49420EE181B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040AD40-8F03-4C94-9CAE-80DD37505ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3560">
   <si>
     <t>ID</t>
   </si>
@@ -10713,6 +10713,9 @@
   </si>
   <si>
     <t>DP on sorted cuts instead of Rod</t>
+  </si>
+  <si>
+    <t>Prefix Xor</t>
   </si>
 </sst>
 </file>
@@ -11145,8 +11148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1327" workbookViewId="0">
-      <selection activeCell="D1340" sqref="D1340"/>
+    <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
+      <selection activeCell="D1242" sqref="D1242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29000,8 +29003,11 @@
       <c r="C1242" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1242" s="8" t="s">
-        <v>8</v>
+      <c r="D1242" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E1242" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040AD40-8F03-4C94-9CAE-80DD37505ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2825FB64-08C9-4196-BDD2-3FE05619A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3561">
   <si>
     <t>ID</t>
   </si>
@@ -10716,6 +10716,9 @@
   </si>
   <si>
     <t>Prefix Xor</t>
+  </si>
+  <si>
+    <t>Segment Tree + Coordinate Compression</t>
   </si>
 </sst>
 </file>
@@ -11148,8 +11151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1229" workbookViewId="0">
-      <selection activeCell="D1242" sqref="D1242"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15489,8 +15492,11 @@
       <c r="C299" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E299" s="8" t="s">
-        <v>8</v>
+      <c r="D299" t="s">
+        <v>3560</v>
+      </c>
+      <c r="E299" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2825FB64-08C9-4196-BDD2-3FE05619A3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8904C071-A780-4641-82D1-C792F548553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6644" uniqueCount="3561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6643" uniqueCount="3562">
   <si>
     <t>ID</t>
   </si>
@@ -10719,6 +10719,9 @@
   </si>
   <si>
     <t>Segment Tree + Coordinate Compression</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
   </si>
 </sst>
 </file>
@@ -11151,8 +11154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E299" sqref="E299"/>
+    <sheetView tabSelected="1" topLeftCell="A1638" workbookViewId="0">
+      <selection activeCell="D1652" sqref="D1652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29068,8 +29071,8 @@
       <c r="C1246" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1246" s="8" t="s">
-        <v>8</v>
+      <c r="E1246" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -34864,8 +34867,11 @@
       <c r="C1651" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1651" s="8" t="s">
-        <v>8</v>
+      <c r="D1651" t="s">
+        <v>3561</v>
+      </c>
+      <c r="E1651" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1652" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8904C071-A780-4641-82D1-C792F548553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586B9B12-9FA2-41D2-ABA3-DC530D2ACD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6643" uniqueCount="3562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6643" uniqueCount="3564">
   <si>
     <t>ID</t>
   </si>
@@ -10722,6 +10722,12 @@
   </si>
   <si>
     <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>HashMap + Represent Post order traversal as a string</t>
+  </si>
+  <si>
+    <t>Just check presence of all substrings, max length will be upto 30</t>
   </si>
 </sst>
 </file>
@@ -11154,8 +11160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1638" workbookViewId="0">
-      <selection activeCell="D1652" sqref="D1652"/>
+    <sheetView tabSelected="1" topLeftCell="A965" workbookViewId="0">
+      <selection activeCell="I975" sqref="I975"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19643,8 +19649,11 @@
       <c r="C588" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E588" s="8" t="s">
-        <v>8</v>
+      <c r="D588" t="s">
+        <v>3562</v>
+      </c>
+      <c r="E588" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -25214,8 +25223,11 @@
       <c r="C978" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E978" s="8" t="s">
-        <v>8</v>
+      <c r="D978" t="s">
+        <v>3563</v>
+      </c>
+      <c r="E978" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586B9B12-9FA2-41D2-ABA3-DC530D2ACD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4057D30F-30EA-4153-A269-26EC3927629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6643" uniqueCount="3564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6642" uniqueCount="3564">
   <si>
     <t>ID</t>
   </si>
@@ -11160,8 +11160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A965" workbookViewId="0">
-      <selection activeCell="I975" sqref="I975"/>
+    <sheetView tabSelected="1" topLeftCell="A713" workbookViewId="0">
+      <selection activeCell="E726" sqref="E726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21626,8 +21626,8 @@
       <c r="C726" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E726" s="8" t="s">
-        <v>8</v>
+      <c r="E726" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4057D30F-30EA-4153-A269-26EC3927629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4365ECCF-B76D-4632-985D-2A32AFD9E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6642" uniqueCount="3564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6641" uniqueCount="3564">
   <si>
     <t>ID</t>
   </si>
@@ -11160,8 +11160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A713" workbookViewId="0">
-      <selection activeCell="E726" sqref="E726"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14186,8 +14186,8 @@
       <c r="C207" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E207" s="8" t="s">
-        <v>8</v>
+      <c r="E207" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4365ECCF-B76D-4632-985D-2A32AFD9E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4668B502-A49B-4322-BC0B-433D059CBC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6641" uniqueCount="3564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="3564">
   <si>
     <t>ID</t>
   </si>
@@ -11160,8 +11160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12369,8 +12369,8 @@
       <c r="C83" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>8</v>
+      <c r="E83" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4668B502-A49B-4322-BC0B-433D059CBC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232A894-C56E-45A6-A78B-A1BE0731D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="3564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="3565">
   <si>
     <t>ID</t>
   </si>
@@ -10728,6 +10728,9 @@
   </si>
   <si>
     <t>Just check presence of all substrings, max length will be upto 30</t>
+  </si>
+  <si>
+    <t>Tree DP</t>
   </si>
 </sst>
 </file>
@@ -11160,8 +11163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
+      <selection activeCell="D623" sqref="D623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20154,8 +20157,11 @@
       <c r="C623" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E623" s="8" t="s">
-        <v>8</v>
+      <c r="D623" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E623" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A232A894-C56E-45A6-A78B-A1BE0731D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE3A86-9D8A-4892-AE45-A3721CA7E18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="3565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="3566">
   <si>
     <t>ID</t>
   </si>
@@ -10731,6 +10731,9 @@
   </si>
   <si>
     <t>Tree DP</t>
+  </si>
+  <si>
+    <t>Sorting and then merge intervals logic</t>
   </si>
 </sst>
 </file>
@@ -11163,8 +11166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
-      <selection activeCell="D623" sqref="D623"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12013,8 +12016,11 @@
       <c r="C58" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>8</v>
+      <c r="D58" t="s">
+        <v>3565</v>
+      </c>
+      <c r="E58" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE3A86-9D8A-4892-AE45-A3721CA7E18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80FC7A-D89E-44DA-98CC-7D21445397D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="3566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="3567">
   <si>
     <t>ID</t>
   </si>
@@ -10734,6 +10734,9 @@
   </si>
   <si>
     <t>Sorting and then merge intervals logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tricky </t>
   </si>
 </sst>
 </file>
@@ -11166,8 +11169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13204,8 +13207,11 @@
       <c r="C139" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="8" t="s">
-        <v>8</v>
+      <c r="D139" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E139" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C80FC7A-D89E-44DA-98CC-7D21445397D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD28CE2-576E-469E-9CD4-66245525A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6640" uniqueCount="3567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3568">
   <si>
     <t>ID</t>
   </si>
@@ -10737,6 +10737,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tricky </t>
+  </si>
+  <si>
+    <t>Monotonic Stack</t>
   </si>
 </sst>
 </file>
@@ -11169,8 +11172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="D478" sqref="D478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18001,8 +18004,8 @@
       <c r="C472" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E472" s="8" t="s">
-        <v>8</v>
+      <c r="E472" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -18085,8 +18088,11 @@
       <c r="C478" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E478" s="8" t="s">
-        <v>8</v>
+      <c r="D478" t="s">
+        <v>3567</v>
+      </c>
+      <c r="E478" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD28CE2-576E-469E-9CD4-66245525A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D158752-8447-4E38-8F4A-88F07831DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3569">
   <si>
     <t>ID</t>
   </si>
@@ -10740,6 +10740,9 @@
   </si>
   <si>
     <t>Monotonic Stack</t>
+  </si>
+  <si>
+    <t>Very similar to LC : Next Permutation</t>
   </si>
 </sst>
 </file>
@@ -11172,8 +11175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="D478" sqref="D478"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="D527" sqref="D527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18795,8 +18798,11 @@
       <c r="C527" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E527" s="8" t="s">
-        <v>8</v>
+      <c r="D527" t="s">
+        <v>3568</v>
+      </c>
+      <c r="E527" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D158752-8447-4E38-8F4A-88F07831DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F8528-E761-4AA8-97E1-EDEC1AD27386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3570">
   <si>
     <t>ID</t>
   </si>
@@ -10743,6 +10743,9 @@
   </si>
   <si>
     <t>Very similar to LC : Next Permutation</t>
+  </si>
+  <si>
+    <t>Implementation Heavy, Stack usage</t>
   </si>
 </sst>
 </file>
@@ -11175,8 +11178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="D527" sqref="D527"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12230,8 +12233,11 @@
       <c r="C72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>8</v>
+      <c r="D72" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E72" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F8528-E761-4AA8-97E1-EDEC1AD27386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084466D2-9D93-42CA-A95D-4E52B339DF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3571">
   <si>
     <t>ID</t>
   </si>
@@ -10746,6 +10746,9 @@
   </si>
   <si>
     <t>Implementation Heavy, Stack usage</t>
+  </si>
+  <si>
+    <t>Used DnC Recursive Backtracking. Used Set to check word is present or not</t>
   </si>
 </sst>
 </file>
@@ -11178,8 +11181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13253,8 +13256,11 @@
       <c r="C141" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E141" s="8" t="s">
-        <v>8</v>
+      <c r="D141" t="s">
+        <v>3570</v>
+      </c>
+      <c r="E141" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084466D2-9D93-42CA-A95D-4E52B339DF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAE1770-D379-4DB2-AD6E-8B2F4E2A5209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3572">
   <si>
     <t>ID</t>
   </si>
@@ -10749,6 +10749,9 @@
   </si>
   <si>
     <t>Used DnC Recursive Backtracking. Used Set to check word is present or not</t>
+  </si>
+  <si>
+    <t>Bad Problem, Used Java replaceAll and &amp; symbol replaced at last</t>
   </si>
 </sst>
 </file>
@@ -11181,8 +11184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A1304" workbookViewId="0">
+      <selection activeCell="E1317" sqref="E1317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30146,8 +30149,11 @@
       <c r="C1317" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1317" s="8" t="s">
-        <v>8</v>
+      <c r="D1317" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E1317" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAE1770-D379-4DB2-AD6E-8B2F4E2A5209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BCEC4F-BC81-4E98-A096-AA4978279994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3574">
   <si>
     <t>ID</t>
   </si>
@@ -10752,6 +10752,12 @@
   </si>
   <si>
     <t>Bad Problem, Used Java replaceAll and &amp; symbol replaced at last</t>
+  </si>
+  <si>
+    <t>TreeMap / Binary Search</t>
+  </si>
+  <si>
+    <t>2 DSUs. Solved in One Go :)</t>
   </si>
 </sst>
 </file>
@@ -11184,8 +11190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1304" workbookViewId="0">
-      <selection activeCell="E1317" sqref="E1317"/>
+    <sheetView tabSelected="1" topLeftCell="A1440" workbookViewId="0">
+      <selection activeCell="D1453" sqref="D1453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24376,8 +24382,11 @@
       <c r="C916" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E916" s="8" t="s">
-        <v>8</v>
+      <c r="D916" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E916" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -32113,8 +32122,11 @@
       <c r="C1453" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1453" s="8" t="s">
-        <v>8</v>
+      <c r="D1453" t="s">
+        <v>3573</v>
+      </c>
+      <c r="E1453" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1454" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BCEC4F-BC81-4E98-A096-AA4978279994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A118C821-2CEC-4437-9F2E-B9E3A1677FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3575">
   <si>
     <t>ID</t>
   </si>
@@ -10758,6 +10758,9 @@
   </si>
   <si>
     <t>2 DSUs. Solved in One Go :)</t>
+  </si>
+  <si>
+    <t>Stack Simulation</t>
   </si>
 </sst>
 </file>
@@ -11190,8 +11193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1440" workbookViewId="0">
-      <selection activeCell="D1453" sqref="D1453"/>
+    <sheetView tabSelected="1" topLeftCell="A887" workbookViewId="0">
+      <selection activeCell="D901" sqref="D901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24152,8 +24155,11 @@
       <c r="C900" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E900" s="8" t="s">
-        <v>8</v>
+      <c r="D900" t="s">
+        <v>3574</v>
+      </c>
+      <c r="E900" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A118C821-2CEC-4437-9F2E-B9E3A1677FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF1B49-164F-4977-B487-BBF6EB08B195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6639" uniqueCount="3575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6638" uniqueCount="3575">
   <si>
     <t>ID</t>
   </si>
@@ -11193,8 +11193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A887" workbookViewId="0">
-      <selection activeCell="D901" sqref="D901"/>
+    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
+      <selection activeCell="D804" sqref="D804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22793,8 +22793,8 @@
       <c r="C804" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E804" s="8" t="s">
-        <v>8</v>
+      <c r="E804" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF1B49-164F-4977-B487-BBF6EB08B195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB344D5-8D99-4BD8-9EB7-E9FC590FC046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6638" uniqueCount="3575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6638" uniqueCount="3577">
   <si>
     <t>ID</t>
   </si>
@@ -10761,6 +10761,12 @@
   </si>
   <si>
     <t>Stack Simulation</t>
+  </si>
+  <si>
+    <t>Hard. Understand fully</t>
+  </si>
+  <si>
+    <t>Stack. Hard problem but easily solved in One Go</t>
   </si>
 </sst>
 </file>
@@ -11193,8 +11199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
-      <selection activeCell="D804" sqref="D804"/>
+    <sheetView tabSelected="1" topLeftCell="A1077" workbookViewId="0">
+      <selection activeCell="E1089" sqref="E1089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -25732,8 +25738,11 @@
       <c r="C1009" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1009" s="8" t="s">
-        <v>8</v>
+      <c r="D1009" t="s">
+        <v>3575</v>
+      </c>
+      <c r="E1009" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -26864,8 +26873,11 @@
       <c r="C1089" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1089" s="8" t="s">
-        <v>8</v>
+      <c r="D1089" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E1089" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB344D5-8D99-4BD8-9EB7-E9FC590FC046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC31209F-C3DD-442F-AF9A-46DF86864411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6638" uniqueCount="3577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6638" uniqueCount="3578">
   <si>
     <t>ID</t>
   </si>
@@ -10767,6 +10767,9 @@
   </si>
   <si>
     <t>Stack. Hard problem but easily solved in One Go</t>
+  </si>
+  <si>
+    <t>Monostack solution</t>
   </si>
 </sst>
 </file>
@@ -11199,8 +11202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1077" workbookViewId="0">
-      <selection activeCell="E1089" sqref="E1089"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15569,8 +15572,11 @@
       <c r="C300" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E300" s="8" t="s">
-        <v>8</v>
+      <c r="D300" t="s">
+        <v>3577</v>
+      </c>
+      <c r="E300" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC31209F-C3DD-442F-AF9A-46DF86864411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8E916A-1629-4E2A-BA26-19FD948DAD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6638" uniqueCount="3578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6637" uniqueCount="3578">
   <si>
     <t>ID</t>
   </si>
@@ -11202,8 +11202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11325,11 +11325,11 @@
       <c r="B8" s="1" t="s">
         <v>3351</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8E916A-1629-4E2A-BA26-19FD948DAD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC696906-CE48-4090-BAA9-F41D8CB5DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6637" uniqueCount="3578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6637" uniqueCount="3579">
   <si>
     <t>ID</t>
   </si>
@@ -10770,6 +10770,9 @@
   </si>
   <si>
     <t>Monostack solution</t>
+  </si>
+  <si>
+    <t>Monostack</t>
   </si>
 </sst>
 </file>
@@ -11202,8 +11205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A1051" workbookViewId="0">
+      <selection activeCell="D1057" sqref="D1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26523,8 +26526,11 @@
       <c r="C1064" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1064" s="8" t="s">
-        <v>8</v>
+      <c r="D1064" t="s">
+        <v>3578</v>
+      </c>
+      <c r="E1064" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC696906-CE48-4090-BAA9-F41D8CB5DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D08530-1170-4A16-93EF-8DED25655B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6637" uniqueCount="3579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6637" uniqueCount="3580">
   <si>
     <t>ID</t>
   </si>
@@ -10773,6 +10773,9 @@
   </si>
   <si>
     <t>Monostack</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0fRmVjxopiE</t>
   </si>
 </sst>
 </file>
@@ -11205,8 +11208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1051" workbookViewId="0">
-      <selection activeCell="D1057" sqref="D1057"/>
+    <sheetView tabSelected="1" topLeftCell="A836" workbookViewId="0">
+      <selection activeCell="H846" sqref="H846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13903,8 +13906,11 @@
       <c r="C184" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E184" s="8" t="s">
-        <v>8</v>
+      <c r="D184" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E184" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -23444,8 +23450,11 @@
       <c r="C849" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E849" s="8" t="s">
-        <v>8</v>
+      <c r="D849" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E849" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -37435,8 +37444,9 @@
     <hyperlink ref="B1702" r:id="rId1712" xr:uid="{F81604E5-E7CC-466A-83EC-DB2C3214D809}"/>
     <hyperlink ref="D428" r:id="rId1713" xr:uid="{18096D3C-0C4B-45BD-BBFD-FF3BB6761391}"/>
     <hyperlink ref="D221" r:id="rId1714" xr:uid="{005344A0-7AA3-4C89-8586-CFF6936ACB3E}"/>
+    <hyperlink ref="D849" r:id="rId1715" xr:uid="{DCB96DC9-16FE-4CEC-8531-F07B965964C1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1715"/>
+  <pageSetup orientation="portrait" r:id="rId1716"/>
 </worksheet>
 </file>
--- a/DOCS/Leetcode_FULL.xlsx
+++ b/DOCS/Leetcode_FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\CP-Prac\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D08530-1170-4A16-93EF-8DED25655B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227E69B8-18C0-4677-9F3F-47182D8F8EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6637" uniqueCount="3580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6636" uniqueCount="3580">
   <si>
     <t>ID</t>
   </si>
@@ -11208,8 +11208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A836" workbookViewId="0">
-      <selection activeCell="H846" sqref="H846"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="D593" sqref="D593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19693,8 +19693,8 @@
       <c r="C586" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E586" s="8" t="s">
-        <v>8</v>
+      <c r="E586" s="9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
